--- a/CPET-2-proc/007.xlsx
+++ b/CPET-2-proc/007.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyao/Desktop/CPET-2-proc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8B4EAB-436E-5146-9B98-474B1FDAF819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC08FDC-0267-9C47-93BC-3832918430EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{AE54BF24-7E60-D046-8CA1-C517E7B4125E}"/>
   </bookViews>
@@ -906,7 +906,7 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -962,13 +962,6 @@
     <font>
       <sz val="10"/>
       <color indexed="12"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
@@ -1080,9 +1073,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1093,6 +1083,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1412,17 +1405,17 @@
   <dimension ref="A1:S269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="12" width="10.83203125" style="17"/>
-    <col min="13" max="13" width="10.83203125" style="23"/>
+    <col min="13" max="13" width="10.83203125" style="22"/>
     <col min="14" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" s="23" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1459,7 +1452,7 @@
       <c r="L1" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>281</v>
       </c>
       <c r="N1" s="9" t="s">
@@ -1477,7 +1470,7 @@
       <c r="R1" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="9" t="s">
         <v>280</v>
       </c>
     </row>
@@ -1518,7 +1511,7 @@
       <c r="L2" s="7">
         <v>79</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="21">
         <f>ROUND(0.00432900432900433,2)</f>
         <v>0</v>
       </c>
@@ -1537,7 +1530,7 @@
       <c r="R2" s="8">
         <v>0.50770285646626501</v>
       </c>
-      <c r="S2" s="20">
+      <c r="S2" s="19">
         <v>6.0012157974735798</v>
       </c>
     </row>
@@ -1578,7 +1571,7 @@
       <c r="L3" s="7">
         <v>79.3333333333333</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="21">
         <f t="shared" ref="M3:M6" si="0">ROUND(0.00432900432900433,2)</f>
         <v>0</v>
       </c>
@@ -1597,7 +1590,7 @@
       <c r="R3" s="8">
         <v>0.42231943093644603</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3" s="19">
         <v>4.9919554484213498</v>
       </c>
     </row>
@@ -1638,7 +1631,7 @@
       <c r="L4" s="7">
         <v>79.6666666666667</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1657,7 +1650,7 @@
       <c r="R4" s="8">
         <v>0.36268011873869099</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="19">
         <v>4.2869990394644404</v>
       </c>
     </row>
@@ -1698,7 +1691,7 @@
       <c r="L5" s="7">
         <v>80</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1717,7 +1710,7 @@
       <c r="R5" s="8">
         <v>0.36787996356026098</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5" s="19">
         <v>4.3484629262442098</v>
       </c>
     </row>
@@ -1758,7 +1751,7 @@
       <c r="L6" s="7">
         <v>79.3333333333333</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1777,7 +1770,7 @@
       <c r="R6" s="8">
         <v>0.388537952500287</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S6" s="19">
         <v>4.5926471926747903</v>
       </c>
     </row>
@@ -1818,7 +1811,7 @@
       <c r="L7" s="11">
         <v>79.6666666666667</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="21">
         <f>ROUND(0.00432900432900433,2)</f>
         <v>0</v>
       </c>
@@ -1837,7 +1830,7 @@
       <c r="R7" s="16">
         <v>0.41773683716922599</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7" s="19">
         <v>4.9377876733951096</v>
       </c>
     </row>
@@ -1878,7 +1871,7 @@
       <c r="L8" s="7">
         <v>82.3333333333333</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="21">
         <v>2.4531024531024244E-2</v>
       </c>
       <c r="N8" s="3">
@@ -1896,7 +1889,7 @@
       <c r="R8" s="8">
         <v>0.47730782521981602</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8" s="19">
         <v>5.6419364683193303</v>
       </c>
     </row>
@@ -1937,7 +1930,7 @@
       <c r="L9" s="7">
         <v>88</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="21">
         <v>7.3593073593073599E-2</v>
       </c>
       <c r="N9" s="3">
@@ -1955,7 +1948,7 @@
       <c r="R9" s="8">
         <v>0.61805218007352403</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S9" s="19">
         <v>7.3055813247461501</v>
       </c>
     </row>
@@ -1996,7 +1989,7 @@
       <c r="L10" s="7">
         <v>92.3333333333333</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="21">
         <v>0.11111111111111099</v>
       </c>
       <c r="N10" s="3">
@@ -2014,7 +2007,7 @@
       <c r="R10" s="8">
         <v>0.72277534441071101</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10" s="19">
         <v>8.5434437873606601</v>
       </c>
     </row>
@@ -2055,7 +2048,7 @@
       <c r="L11" s="7">
         <v>93.3333333333333</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="21">
         <v>0.11976911976911948</v>
       </c>
       <c r="N11" s="3">
@@ -2073,7 +2066,7 @@
       <c r="R11" s="8">
         <v>0.77003997252155199</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="19">
         <v>9.1021273347701204</v>
       </c>
     </row>
@@ -2114,7 +2107,7 @@
       <c r="L12" s="7">
         <v>91</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="21">
         <v>9.9567099567099596E-2</v>
       </c>
       <c r="N12" s="3">
@@ -2132,7 +2125,7 @@
       <c r="R12" s="8">
         <v>0.82378210628020798</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12" s="19">
         <v>9.7373771427920595</v>
       </c>
     </row>
@@ -2173,7 +2166,7 @@
       <c r="L13" s="7">
         <v>91.3333333333333</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="21">
         <v>0.102453102453102</v>
       </c>
       <c r="N13" s="3">
@@ -2191,7 +2184,7 @@
       <c r="R13" s="8">
         <v>0.70960995840683405</v>
       </c>
-      <c r="S13" s="20">
+      <c r="S13" s="19">
         <v>8.3878245674566703</v>
       </c>
     </row>
@@ -2232,7 +2225,7 @@
       <c r="L14" s="7">
         <v>91.3333333333333</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="21">
         <v>0.102453102453102</v>
       </c>
       <c r="N14" s="3">
@@ -2250,7 +2243,7 @@
       <c r="R14" s="8">
         <v>0.60859797550833605</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="19">
         <v>7.1938294977344697</v>
       </c>
     </row>
@@ -2291,7 +2284,7 @@
       <c r="L15" s="7">
         <v>93</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="21">
         <v>0.11688311688311688</v>
       </c>
       <c r="N15" s="3">
@@ -2309,7 +2302,7 @@
       <c r="R15" s="8">
         <v>0.69053200137873105</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15" s="19">
         <v>8.1623168011670302</v>
       </c>
     </row>
@@ -2350,7 +2343,7 @@
       <c r="L16" s="7">
         <v>93.6666666666667</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="21">
         <v>0.122655122655123</v>
       </c>
       <c r="N16" s="3">
@@ -2368,7 +2361,7 @@
       <c r="R16" s="8">
         <v>0.86744405380549805</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S16" s="19">
         <v>10.253475813303799</v>
       </c>
     </row>
@@ -2409,7 +2402,7 @@
       <c r="L17" s="7">
         <v>92.6666666666667</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="21">
         <v>0.113997113997114</v>
       </c>
       <c r="N17" s="3">
@@ -2427,7 +2420,7 @@
       <c r="R17" s="8">
         <v>0.98104536748170401</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17" s="19">
         <v>11.5962809395</v>
       </c>
     </row>
@@ -2468,7 +2461,7 @@
       <c r="L18" s="7">
         <v>91.3333333333333</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="21">
         <v>0.10245310245310217</v>
       </c>
       <c r="N18" s="3">
@@ -2486,7 +2479,7 @@
       <c r="R18" s="8">
         <v>0.89850063823613102</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S18" s="19">
         <v>10.620574920048799</v>
       </c>
     </row>
@@ -2527,7 +2520,7 @@
       <c r="L19" s="7">
         <v>89.3333333333333</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="21">
         <v>8.5137085137084845E-2</v>
       </c>
       <c r="N19" s="3">
@@ -2545,7 +2538,7 @@
       <c r="R19" s="8">
         <v>0.83509028822008602</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S19" s="19">
         <v>9.8710435959820995</v>
       </c>
     </row>
@@ -2586,7 +2579,7 @@
       <c r="L20" s="11">
         <v>89.3333333333333</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="21">
         <v>8.5137085137084845E-2</v>
       </c>
       <c r="N20" s="12">
@@ -2604,7 +2597,7 @@
       <c r="R20" s="16">
         <v>0.80548653649472701</v>
       </c>
-      <c r="S20" s="20">
+      <c r="S20" s="19">
         <v>9.52111745265635</v>
       </c>
     </row>
@@ -2645,7 +2638,7 @@
       <c r="L21" s="7">
         <v>91</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="21">
         <v>9.9567099567099568E-2</v>
       </c>
       <c r="N21" s="3">
@@ -2663,7 +2656,7 @@
       <c r="R21" s="8">
         <v>0.84453820033484295</v>
       </c>
-      <c r="S21" s="20">
+      <c r="S21" s="19">
         <v>9.9827210441470804</v>
       </c>
     </row>
@@ -2704,7 +2697,7 @@
       <c r="L22" s="7">
         <v>92.6666666666667</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="21">
         <v>0.113997113997114</v>
       </c>
       <c r="N22" s="3">
@@ -2722,7 +2715,7 @@
       <c r="R22" s="8">
         <v>0.93347719582637401</v>
       </c>
-      <c r="S22" s="20">
+      <c r="S22" s="19">
         <v>11.0340094069311</v>
       </c>
     </row>
@@ -2763,7 +2756,7 @@
       <c r="L23" s="7">
         <v>95</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="21">
         <v>0.13419913419913421</v>
       </c>
       <c r="N23" s="3">
@@ -2781,7 +2774,7 @@
       <c r="R23" s="8">
         <v>0.91800522085227498</v>
       </c>
-      <c r="S23" s="20">
+      <c r="S23" s="19">
         <v>10.8511255419891</v>
       </c>
     </row>
@@ -2822,7 +2815,7 @@
       <c r="L24" s="7">
         <v>95</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="21">
         <v>0.13419913419913421</v>
       </c>
       <c r="N24" s="3">
@@ -2840,7 +2833,7 @@
       <c r="R24" s="8">
         <v>0.95488564758648897</v>
       </c>
-      <c r="S24" s="20">
+      <c r="S24" s="19">
         <v>11.287064392275299</v>
       </c>
     </row>
@@ -2881,7 +2874,7 @@
       <c r="L25" s="7">
         <v>94.3333333333333</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="21">
         <v>0.128427128427128</v>
       </c>
       <c r="N25" s="3">
@@ -2899,7 +2892,7 @@
       <c r="R25" s="8">
         <v>0.80844706712046999</v>
       </c>
-      <c r="S25" s="20">
+      <c r="S25" s="19">
         <v>9.5561119044972802</v>
       </c>
     </row>
@@ -2940,7 +2933,7 @@
       <c r="L26" s="7">
         <v>93.3333333333333</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="21">
         <v>0.11976911976911948</v>
       </c>
       <c r="N26" s="3">
@@ -2958,7 +2951,7 @@
       <c r="R26" s="8">
         <v>0.93598804373935995</v>
       </c>
-      <c r="S26" s="20">
+      <c r="S26" s="19">
         <v>11.063688460276101</v>
       </c>
     </row>
@@ -2999,7 +2992,7 @@
       <c r="L27" s="7">
         <v>94.6666666666667</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="21">
         <v>0.1313131313131316</v>
       </c>
       <c r="N27" s="3">
@@ -3017,7 +3010,7 @@
       <c r="R27" s="8">
         <v>0.92427157425695206</v>
       </c>
-      <c r="S27" s="20">
+      <c r="S27" s="19">
         <v>10.9251959132027</v>
       </c>
     </row>
@@ -3058,7 +3051,7 @@
       <c r="L28" s="7">
         <v>95.3333333333333</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="21">
         <v>0.13708513708513681</v>
       </c>
       <c r="N28" s="3">
@@ -3076,7 +3069,7 @@
       <c r="R28" s="8">
         <v>1.0147644104206099</v>
       </c>
-      <c r="S28" s="20">
+      <c r="S28" s="19">
         <v>11.994851187004899</v>
       </c>
     </row>
@@ -3117,7 +3110,7 @@
       <c r="L29" s="7">
         <v>95.6666666666667</v>
       </c>
-      <c r="M29" s="22">
+      <c r="M29" s="21">
         <v>0.13997113997114025</v>
       </c>
       <c r="N29" s="3">
@@ -3135,7 +3128,7 @@
       <c r="R29" s="8">
         <v>0.96497457605828596</v>
       </c>
-      <c r="S29" s="20">
+      <c r="S29" s="19">
         <v>11.4063188659372</v>
       </c>
     </row>
@@ -3176,7 +3169,7 @@
       <c r="L30" s="7">
         <v>95.6666666666667</v>
       </c>
-      <c r="M30" s="22">
+      <c r="M30" s="21">
         <v>0.13997113997114025</v>
       </c>
       <c r="N30" s="3">
@@ -3194,7 +3187,7 @@
       <c r="R30" s="8">
         <v>1.06280758733145</v>
       </c>
-      <c r="S30" s="20">
+      <c r="S30" s="19">
         <v>12.562737438906099</v>
       </c>
     </row>
@@ -3235,7 +3228,7 @@
       <c r="L31" s="7">
         <v>96.6666666666667</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M31" s="21">
         <v>0.14862914862914892</v>
       </c>
       <c r="N31" s="3">
@@ -3253,7 +3246,7 @@
       <c r="R31" s="8">
         <v>1.0280765411085999</v>
       </c>
-      <c r="S31" s="20">
+      <c r="S31" s="19">
         <v>12.152204977643001</v>
       </c>
     </row>
@@ -3294,7 +3287,7 @@
       <c r="L32" s="7">
         <v>99.3333333333333</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M32" s="21">
         <v>0.17171717171717144</v>
       </c>
       <c r="N32" s="3">
@@ -3312,7 +3305,7 @@
       <c r="R32" s="8">
         <v>1.13716947520656</v>
       </c>
-      <c r="S32" s="20">
+      <c r="S32" s="19">
         <v>13.441719565089301</v>
       </c>
     </row>
@@ -3353,7 +3346,7 @@
       <c r="L33" s="11">
         <v>100</v>
       </c>
-      <c r="M33" s="22">
+      <c r="M33" s="21">
         <v>0.1774891774891775</v>
       </c>
       <c r="N33" s="12">
@@ -3371,7 +3364,7 @@
       <c r="R33" s="16">
         <v>1.0285186568139399</v>
       </c>
-      <c r="S33" s="20">
+      <c r="S33" s="19">
         <v>12.1574309316069</v>
       </c>
     </row>
@@ -3412,7 +3405,7 @@
       <c r="L34" s="7">
         <v>100.666666666667</v>
       </c>
-      <c r="M34" s="22">
+      <c r="M34" s="21">
         <v>0.18326118326118612</v>
       </c>
       <c r="N34" s="3">
@@ -3430,7 +3423,7 @@
       <c r="R34" s="8">
         <v>1.0421168519236199</v>
       </c>
-      <c r="S34" s="20">
+      <c r="S34" s="19">
         <v>12.318166098388</v>
       </c>
     </row>
@@ -3471,7 +3464,7 @@
       <c r="L35" s="7">
         <v>99.3333333333333</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="21">
         <v>0.17171717171717144</v>
       </c>
       <c r="N35" s="3">
@@ -3489,7 +3482,7 @@
       <c r="R35" s="8">
         <v>1.05780539007024</v>
       </c>
-      <c r="S35" s="20">
+      <c r="S35" s="19">
         <v>12.5036098117049</v>
       </c>
     </row>
@@ -3530,7 +3523,7 @@
       <c r="L36" s="7">
         <v>99</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M36" s="21">
         <v>0.16883116883116883</v>
       </c>
       <c r="N36" s="3">
@@ -3548,7 +3541,7 @@
       <c r="R36" s="8">
         <v>1.10828528825365</v>
       </c>
-      <c r="S36" s="20">
+      <c r="S36" s="19">
         <v>13.1002989155278</v>
       </c>
     </row>
@@ -3589,7 +3582,7 @@
       <c r="L37" s="7">
         <v>99</v>
       </c>
-      <c r="M37" s="22">
+      <c r="M37" s="21">
         <v>0.16883116883116883</v>
       </c>
       <c r="N37" s="3">
@@ -3607,7 +3600,7 @@
       <c r="R37" s="8">
         <v>1.187284734143</v>
       </c>
-      <c r="S37" s="20">
+      <c r="S37" s="19">
         <v>14.034098512328599</v>
       </c>
     </row>
@@ -3648,7 +3641,7 @@
       <c r="L38" s="7">
         <v>100.333333333333</v>
       </c>
-      <c r="M38" s="22">
+      <c r="M38" s="21">
         <v>0.1803751803751775</v>
       </c>
       <c r="N38" s="3">
@@ -3666,7 +3659,7 @@
       <c r="R38" s="8">
         <v>1.1916041781383</v>
       </c>
-      <c r="S38" s="20">
+      <c r="S38" s="19">
         <v>14.0851557699563</v>
       </c>
     </row>
@@ -3707,7 +3700,7 @@
       <c r="L39" s="7">
         <v>102</v>
       </c>
-      <c r="M39" s="22">
+      <c r="M39" s="21">
         <v>0.19480519480519481</v>
       </c>
       <c r="N39" s="3">
@@ -3725,7 +3718,7 @@
       <c r="R39" s="8">
         <v>1.18940451316463</v>
       </c>
-      <c r="S39" s="20">
+      <c r="S39" s="19">
         <v>14.059155001945999</v>
       </c>
     </row>
@@ -3766,7 +3759,7 @@
       <c r="L40" s="7">
         <v>103.333333333333</v>
       </c>
-      <c r="M40" s="22">
+      <c r="M40" s="21">
         <v>0.20634920634920348</v>
       </c>
       <c r="N40" s="3">
@@ -3784,7 +3777,7 @@
       <c r="R40" s="8">
         <v>1.0985056254889001</v>
       </c>
-      <c r="S40" s="20">
+      <c r="S40" s="19">
         <v>12.984700064880601</v>
       </c>
     </row>
@@ -3825,7 +3818,7 @@
       <c r="L41" s="7">
         <v>103.333333333333</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M41" s="21">
         <v>0.20634920634920348</v>
       </c>
       <c r="N41" s="3">
@@ -3843,7 +3836,7 @@
       <c r="R41" s="8">
         <v>1.0624771055926101</v>
       </c>
-      <c r="S41" s="20">
+      <c r="S41" s="19">
         <v>12.5588310353737</v>
       </c>
     </row>
@@ -3884,7 +3877,7 @@
       <c r="L42" s="7">
         <v>102.666666666667</v>
       </c>
-      <c r="M42" s="22">
+      <c r="M42" s="21">
         <v>0.20057720057720343</v>
       </c>
       <c r="N42" s="3">
@@ -3902,7 +3895,7 @@
       <c r="R42" s="8">
         <v>1.1281157274965199</v>
       </c>
-      <c r="S42" s="20">
+      <c r="S42" s="19">
         <v>13.3347012706444</v>
       </c>
     </row>
@@ -3943,7 +3936,7 @@
       <c r="L43" s="7">
         <v>101.666666666667</v>
       </c>
-      <c r="M43" s="22">
+      <c r="M43" s="21">
         <v>0.19191919191919479</v>
       </c>
       <c r="N43" s="3">
@@ -3961,7 +3954,7 @@
       <c r="R43" s="8">
         <v>1.1859689310191801</v>
       </c>
-      <c r="S43" s="20">
+      <c r="S43" s="19">
         <v>14.0185452839146</v>
       </c>
     </row>
@@ -4002,7 +3995,7 @@
       <c r="L44" s="7">
         <v>101.666666666667</v>
       </c>
-      <c r="M44" s="22">
+      <c r="M44" s="21">
         <v>0.19191919191919479</v>
       </c>
       <c r="N44" s="3">
@@ -4020,7 +4013,7 @@
       <c r="R44" s="8">
         <v>1.2171765309991101</v>
       </c>
-      <c r="S44" s="20">
+      <c r="S44" s="19">
         <v>14.3874294444339</v>
       </c>
     </row>
@@ -4061,7 +4054,7 @@
       <c r="L45" s="7">
         <v>102.666666666667</v>
       </c>
-      <c r="M45" s="22">
+      <c r="M45" s="21">
         <v>0.20057720057720343</v>
       </c>
       <c r="N45" s="3">
@@ -4079,7 +4072,7 @@
       <c r="R45" s="8">
         <v>1.1811069202959401</v>
       </c>
-      <c r="S45" s="20">
+      <c r="S45" s="19">
         <v>13.9610747079898</v>
       </c>
     </row>
@@ -4120,7 +4113,7 @@
       <c r="L46" s="7">
         <v>103.333333333333</v>
       </c>
-      <c r="M46" s="22">
+      <c r="M46" s="21">
         <v>0.20634920634920348</v>
       </c>
       <c r="N46" s="3">
@@ -4138,7 +4131,7 @@
       <c r="R46" s="8">
         <v>1.2700628727471901</v>
       </c>
-      <c r="S46" s="20">
+      <c r="S46" s="19">
         <v>15.01256350765</v>
       </c>
     </row>
@@ -4179,7 +4172,7 @@
       <c r="L47" s="11">
         <v>105</v>
       </c>
-      <c r="M47" s="22">
+      <c r="M47" s="21">
         <v>0.22077922077922077</v>
       </c>
       <c r="N47" s="12">
@@ -4197,7 +4190,7 @@
       <c r="R47" s="16">
         <v>1.2499579409703101</v>
       </c>
-      <c r="S47" s="20">
+      <c r="S47" s="19">
         <v>14.7749165599327</v>
       </c>
     </row>
@@ -4238,7 +4231,7 @@
       <c r="L48" s="7">
         <v>105.666666666667</v>
       </c>
-      <c r="M48" s="22">
+      <c r="M48" s="21">
         <v>0.22655122655122942</v>
       </c>
       <c r="N48" s="3">
@@ -4256,7 +4249,7 @@
       <c r="R48" s="8">
         <v>1.28167699299972</v>
       </c>
-      <c r="S48" s="20">
+      <c r="S48" s="19">
         <v>15.1498462529518</v>
       </c>
     </row>
@@ -4297,7 +4290,7 @@
       <c r="L49" s="7">
         <v>105.666666666667</v>
       </c>
-      <c r="M49" s="22">
+      <c r="M49" s="21">
         <v>0.22655122655122942</v>
       </c>
       <c r="N49" s="3">
@@ -4315,7 +4308,7 @@
       <c r="R49" s="8">
         <v>1.2065584932956901</v>
       </c>
-      <c r="S49" s="20">
+      <c r="S49" s="19">
         <v>14.261920724535299</v>
       </c>
     </row>
@@ -4356,7 +4349,7 @@
       <c r="L50" s="7">
         <v>104.333333333333</v>
       </c>
-      <c r="M50" s="22">
+      <c r="M50" s="21">
         <v>0.21500721500721215</v>
       </c>
       <c r="N50" s="3">
@@ -4374,7 +4367,7 @@
       <c r="R50" s="8">
         <v>1.32749430022466</v>
       </c>
-      <c r="S50" s="20">
+      <c r="S50" s="19">
         <v>15.6914219884712</v>
       </c>
     </row>
@@ -4415,7 +4408,7 @@
       <c r="L51" s="7">
         <v>105</v>
       </c>
-      <c r="M51" s="22">
+      <c r="M51" s="21">
         <v>0.22077922077922077</v>
       </c>
       <c r="N51" s="3">
@@ -4433,7 +4426,7 @@
       <c r="R51" s="8">
         <v>1.3430123151837701</v>
       </c>
-      <c r="S51" s="20">
+      <c r="S51" s="19">
         <v>15.874850061273801</v>
       </c>
     </row>
@@ -4474,7 +4467,7 @@
       <c r="L52" s="7">
         <v>107.333333333333</v>
       </c>
-      <c r="M52" s="22">
+      <c r="M52" s="21">
         <v>0.2409812409812381</v>
       </c>
       <c r="N52" s="3">
@@ -4492,7 +4485,7 @@
       <c r="R52" s="8">
         <v>1.6759102330433899</v>
       </c>
-      <c r="S52" s="20">
+      <c r="S52" s="19">
         <v>19.809813629354402</v>
       </c>
     </row>
@@ -4533,7 +4526,7 @@
       <c r="L53" s="7">
         <v>109</v>
       </c>
-      <c r="M53" s="22">
+      <c r="M53" s="21">
         <v>0.25541125541125542</v>
       </c>
       <c r="N53" s="3">
@@ -4551,7 +4544,7 @@
       <c r="R53" s="8">
         <v>1.58938792907879</v>
       </c>
-      <c r="S53" s="20">
+      <c r="S53" s="19">
         <v>18.787091360269301</v>
       </c>
     </row>
@@ -4592,7 +4585,7 @@
       <c r="L54" s="7">
         <v>110</v>
       </c>
-      <c r="M54" s="22">
+      <c r="M54" s="21">
         <v>0.26406926406926406</v>
       </c>
       <c r="N54" s="3">
@@ -4610,7 +4603,7 @@
       <c r="R54" s="8">
         <v>1.6441762228843999</v>
       </c>
-      <c r="S54" s="20">
+      <c r="S54" s="19">
         <v>19.434707126293102</v>
       </c>
     </row>
@@ -4651,7 +4644,7 @@
       <c r="L55" s="7">
         <v>110</v>
       </c>
-      <c r="M55" s="22">
+      <c r="M55" s="21">
         <v>0.26406926406926406</v>
       </c>
       <c r="N55" s="3">
@@ -4669,7 +4662,7 @@
       <c r="R55" s="8">
         <v>1.4370966881909799</v>
       </c>
-      <c r="S55" s="20">
+      <c r="S55" s="19">
         <v>16.986958489255102</v>
       </c>
     </row>
@@ -4710,7 +4703,7 @@
       <c r="L56" s="7">
         <v>110.333333333333</v>
       </c>
-      <c r="M56" s="22">
+      <c r="M56" s="21">
         <v>0.26695526695526406</v>
       </c>
       <c r="N56" s="3">
@@ -4728,7 +4721,7 @@
       <c r="R56" s="8">
         <v>1.29419007335147</v>
       </c>
-      <c r="S56" s="20">
+      <c r="S56" s="19">
         <v>15.297755004154499</v>
       </c>
     </row>
@@ -4769,7 +4762,7 @@
       <c r="L57" s="7">
         <v>111</v>
       </c>
-      <c r="M57" s="22">
+      <c r="M57" s="21">
         <v>0.27272727272727271</v>
       </c>
       <c r="N57" s="3">
@@ -4787,7 +4780,7 @@
       <c r="R57" s="8">
         <v>1.3634950649690001</v>
       </c>
-      <c r="S57" s="20">
+      <c r="S57" s="19">
         <v>16.116962942895999</v>
       </c>
     </row>
@@ -4828,7 +4821,7 @@
       <c r="L58" s="7">
         <v>112.333333333333</v>
       </c>
-      <c r="M58" s="22">
+      <c r="M58" s="21">
         <v>0.2842712842712814</v>
       </c>
       <c r="N58" s="3">
@@ -4846,7 +4839,7 @@
       <c r="R58" s="8">
         <v>1.45751830372622</v>
       </c>
-      <c r="S58" s="20">
+      <c r="S58" s="19">
         <v>17.228348743808802</v>
       </c>
     </row>
@@ -4887,7 +4880,7 @@
       <c r="L59" s="7">
         <v>114</v>
       </c>
-      <c r="M59" s="22">
+      <c r="M59" s="21">
         <v>0.29870129870129869</v>
       </c>
       <c r="N59" s="3">
@@ -4905,7 +4898,7 @@
       <c r="R59" s="8">
         <v>1.58501332417629</v>
       </c>
-      <c r="S59" s="20">
+      <c r="S59" s="19">
         <v>18.735382082462099</v>
       </c>
     </row>
@@ -4946,7 +4939,7 @@
       <c r="L60" s="7">
         <v>115</v>
       </c>
-      <c r="M60" s="22">
+      <c r="M60" s="21">
         <v>0.30735930735930733</v>
       </c>
       <c r="N60" s="3">
@@ -4964,7 +4957,7 @@
       <c r="R60" s="8">
         <v>1.5099892827503101</v>
       </c>
-      <c r="S60" s="20">
+      <c r="S60" s="19">
         <v>17.8485730821549</v>
       </c>
     </row>
@@ -5005,7 +4998,7 @@
       <c r="L61" s="7">
         <v>115.333333333333</v>
       </c>
-      <c r="M61" s="22">
+      <c r="M61" s="21">
         <v>0.31024531024530738</v>
       </c>
       <c r="N61" s="3">
@@ -5023,7 +5016,7 @@
       <c r="R61" s="8">
         <v>1.40088710542446</v>
       </c>
-      <c r="S61" s="20">
+      <c r="S61" s="19">
         <v>16.558949236695799</v>
       </c>
     </row>
@@ -5064,7 +5057,7 @@
       <c r="L62" s="7">
         <v>115</v>
       </c>
-      <c r="M62" s="22">
+      <c r="M62" s="21">
         <v>0.30735930735930733</v>
       </c>
       <c r="N62" s="3">
@@ -5082,7 +5075,7 @@
       <c r="R62" s="8">
         <v>1.4053397570800801</v>
       </c>
-      <c r="S62" s="20">
+      <c r="S62" s="19">
         <v>16.611581052956002</v>
       </c>
     </row>
@@ -5123,7 +5116,7 @@
       <c r="L63" s="11">
         <v>114.666666666667</v>
       </c>
-      <c r="M63" s="22">
+      <c r="M63" s="21">
         <v>0.30447330447330734</v>
       </c>
       <c r="N63" s="12">
@@ -5141,7 +5134,7 @@
       <c r="R63" s="16">
         <v>1.2317725173359999</v>
       </c>
-      <c r="S63" s="20">
+      <c r="S63" s="19">
         <v>14.559958833758801</v>
       </c>
     </row>
@@ -5182,7 +5175,7 @@
       <c r="L64" s="7">
         <v>115</v>
       </c>
-      <c r="M64" s="22">
+      <c r="M64" s="21">
         <v>0.30735930735930733</v>
       </c>
       <c r="N64" s="3">
@@ -5200,7 +5193,7 @@
       <c r="R64" s="8">
         <v>1.1494732394151701</v>
       </c>
-      <c r="S64" s="20">
+      <c r="S64" s="19">
         <v>13.587154130203</v>
       </c>
     </row>
@@ -5241,7 +5234,7 @@
       <c r="L65" s="7">
         <v>117</v>
       </c>
-      <c r="M65" s="22">
+      <c r="M65" s="21">
         <v>0.32467532467532467</v>
       </c>
       <c r="N65" s="3">
@@ -5259,7 +5252,7 @@
       <c r="R65" s="8">
         <v>1.5471575281669701</v>
       </c>
-      <c r="S65" s="20">
+      <c r="S65" s="19">
         <v>18.287914044526801</v>
       </c>
     </row>
@@ -5300,7 +5293,7 @@
       <c r="L66" s="7">
         <v>119</v>
       </c>
-      <c r="M66" s="22">
+      <c r="M66" s="21">
         <v>0.34199134199134201</v>
       </c>
       <c r="N66" s="3">
@@ -5318,7 +5311,7 @@
       <c r="R66" s="8">
         <v>1.7602578218848799</v>
       </c>
-      <c r="S66" s="20">
+      <c r="S66" s="19">
         <v>20.806830045920599</v>
       </c>
     </row>
@@ -5359,7 +5352,7 @@
       <c r="L67" s="7">
         <v>121</v>
       </c>
-      <c r="M67" s="22">
+      <c r="M67" s="21">
         <v>0.3593073593073593</v>
       </c>
       <c r="N67" s="3">
@@ -5377,7 +5370,7 @@
       <c r="R67" s="8">
         <v>1.7866923643525301</v>
       </c>
-      <c r="S67" s="20">
+      <c r="S67" s="19">
         <v>21.1192950869093</v>
       </c>
     </row>
@@ -5418,7 +5411,7 @@
       <c r="L68" s="7">
         <v>122.666666666667</v>
       </c>
-      <c r="M68" s="22">
+      <c r="M68" s="21">
         <v>0.37373737373737659</v>
       </c>
       <c r="N68" s="3">
@@ -5436,7 +5429,7 @@
       <c r="R68" s="8">
         <v>1.6517000615680399</v>
       </c>
-      <c r="S68" s="20">
+      <c r="S68" s="19">
         <v>19.5236413896931</v>
       </c>
     </row>
@@ -5477,7 +5470,7 @@
       <c r="L69" s="7">
         <v>123.333333333333</v>
       </c>
-      <c r="M69" s="22">
+      <c r="M69" s="21">
         <v>0.37950937950937663</v>
       </c>
       <c r="N69" s="3">
@@ -5495,7 +5488,7 @@
       <c r="R69" s="8">
         <v>1.5734742026069899</v>
       </c>
-      <c r="S69" s="20">
+      <c r="S69" s="19">
         <v>18.598985846418302</v>
       </c>
     </row>
@@ -5536,7 +5529,7 @@
       <c r="L70" s="7">
         <v>124</v>
       </c>
-      <c r="M70" s="22">
+      <c r="M70" s="21">
         <v>0.38528138528138528</v>
       </c>
       <c r="N70" s="3">
@@ -5554,7 +5547,7 @@
       <c r="R70" s="8">
         <v>1.5880942195284</v>
       </c>
-      <c r="S70" s="20">
+      <c r="S70" s="19">
         <v>18.771799285205599</v>
       </c>
     </row>
@@ -5595,7 +5588,7 @@
       <c r="L71" s="7">
         <v>124.666666666667</v>
       </c>
-      <c r="M71" s="22">
+      <c r="M71" s="21">
         <v>0.39105339105339393</v>
       </c>
       <c r="N71" s="3">
@@ -5613,7 +5606,7 @@
       <c r="R71" s="8">
         <v>1.4970769811614599</v>
       </c>
-      <c r="S71" s="20">
+      <c r="S71" s="19">
         <v>17.695945403799801</v>
       </c>
     </row>
@@ -5654,7 +5647,7 @@
       <c r="L72" s="7">
         <v>124.666666666667</v>
       </c>
-      <c r="M72" s="22">
+      <c r="M72" s="21">
         <v>0.39105339105339393</v>
       </c>
       <c r="N72" s="3">
@@ -5672,7 +5665,7 @@
       <c r="R72" s="8">
         <v>1.58442375151183</v>
       </c>
-      <c r="S72" s="20">
+      <c r="S72" s="19">
         <v>18.728413138437698</v>
       </c>
     </row>
@@ -5713,7 +5706,7 @@
       <c r="L73" s="7">
         <v>123.333333333333</v>
       </c>
-      <c r="M73" s="22">
+      <c r="M73" s="21">
         <v>0.37950937950937663</v>
       </c>
       <c r="N73" s="3">
@@ -5731,7 +5724,7 @@
       <c r="R73" s="8">
         <v>1.5973994355743</v>
       </c>
-      <c r="S73" s="20">
+      <c r="S73" s="19">
         <v>18.8817900186088</v>
       </c>
     </row>
@@ -5772,7 +5765,7 @@
       <c r="L74" s="7">
         <v>122</v>
       </c>
-      <c r="M74" s="22">
+      <c r="M74" s="21">
         <v>0.36796536796536794</v>
       </c>
       <c r="N74" s="3">
@@ -5790,7 +5783,7 @@
       <c r="R74" s="8">
         <v>1.5039204578901799</v>
       </c>
-      <c r="S74" s="20">
+      <c r="S74" s="19">
         <v>17.776837563713698</v>
       </c>
     </row>
@@ -5831,7 +5824,7 @@
       <c r="L75" s="7">
         <v>120.666666666667</v>
       </c>
-      <c r="M75" s="22">
+      <c r="M75" s="21">
         <v>0.3564213564213593</v>
       </c>
       <c r="N75" s="3">
@@ -5849,7 +5842,7 @@
       <c r="R75" s="8">
         <v>1.7674253245165701</v>
       </c>
-      <c r="S75" s="20">
+      <c r="S75" s="19">
         <v>20.891552299250201</v>
       </c>
     </row>
@@ -5890,7 +5883,7 @@
       <c r="L76" s="7">
         <v>121</v>
       </c>
-      <c r="M76" s="22">
+      <c r="M76" s="21">
         <v>0.3593073593073593</v>
       </c>
       <c r="N76" s="3">
@@ -5908,7 +5901,7 @@
       <c r="R76" s="8">
         <v>1.91288220525926</v>
       </c>
-      <c r="S76" s="20">
+      <c r="S76" s="19">
         <v>22.610900771386</v>
       </c>
     </row>
@@ -5949,7 +5942,7 @@
       <c r="L77" s="7">
         <v>120.666666666667</v>
       </c>
-      <c r="M77" s="22">
+      <c r="M77" s="21">
         <v>0.3564213564213593</v>
       </c>
       <c r="N77" s="3">
@@ -5967,7 +5960,7 @@
       <c r="R77" s="8">
         <v>2.1582414518047499</v>
       </c>
-      <c r="S77" s="20">
+      <c r="S77" s="19">
         <v>25.511128271923699</v>
       </c>
     </row>
@@ -6008,7 +6001,7 @@
       <c r="L78" s="7">
         <v>121.666666666667</v>
       </c>
-      <c r="M78" s="22">
+      <c r="M78" s="21">
         <v>0.36507936507936795</v>
       </c>
       <c r="N78" s="3">
@@ -6026,7 +6019,7 @@
       <c r="R78" s="8">
         <v>1.7270535566618901</v>
       </c>
-      <c r="S78" s="20">
+      <c r="S78" s="19">
         <v>20.414344641393502</v>
       </c>
     </row>
@@ -6067,7 +6060,7 @@
       <c r="L79" s="11">
         <v>123.333333333333</v>
       </c>
-      <c r="M79" s="22">
+      <c r="M79" s="21">
         <v>0.37950937950937663</v>
       </c>
       <c r="N79" s="12">
@@ -6085,7 +6078,7 @@
       <c r="R79" s="16">
         <v>1.54326446181837</v>
       </c>
-      <c r="S79" s="20">
+      <c r="S79" s="19">
         <v>18.2418967118011</v>
       </c>
     </row>
@@ -6126,7 +6119,7 @@
       <c r="L80" s="7">
         <v>124</v>
       </c>
-      <c r="M80" s="22">
+      <c r="M80" s="21">
         <v>0.38528138528138528</v>
       </c>
       <c r="N80" s="3">
@@ -6144,7 +6137,7 @@
       <c r="R80" s="8">
         <v>1.67655300130644</v>
       </c>
-      <c r="S80" s="20">
+      <c r="S80" s="19">
         <v>19.8174113629603</v>
       </c>
     </row>
@@ -6185,7 +6178,7 @@
       <c r="L81" s="7">
         <v>124.333333333333</v>
       </c>
-      <c r="M81" s="22">
+      <c r="M81" s="21">
         <v>0.38816738816738527</v>
       </c>
       <c r="N81" s="3">
@@ -6203,7 +6196,7 @@
       <c r="R81" s="8">
         <v>1.79551872117484</v>
       </c>
-      <c r="S81" s="20">
+      <c r="S81" s="19">
         <v>21.223625545801902</v>
       </c>
     </row>
@@ -6244,7 +6237,7 @@
       <c r="L82" s="7">
         <v>125</v>
       </c>
-      <c r="M82" s="22">
+      <c r="M82" s="21">
         <v>0.39393939393939392</v>
       </c>
       <c r="N82" s="3">
@@ -6262,7 +6255,7 @@
       <c r="R82" s="8">
         <v>2.1019088807188799</v>
       </c>
-      <c r="S82" s="20">
+      <c r="S82" s="19">
         <v>24.845258637339001</v>
       </c>
     </row>
@@ -6303,7 +6296,7 @@
       <c r="L83" s="7">
         <v>125.666666666667</v>
       </c>
-      <c r="M83" s="22">
+      <c r="M83" s="21">
         <v>0.39971139971140257</v>
       </c>
       <c r="N83" s="3">
@@ -6321,7 +6314,7 @@
       <c r="R83" s="8">
         <v>2.0617526770648702</v>
       </c>
-      <c r="S83" s="20">
+      <c r="S83" s="19">
         <v>24.3705990196793</v>
       </c>
     </row>
@@ -6362,7 +6355,7 @@
       <c r="L84" s="7">
         <v>126.333333333333</v>
       </c>
-      <c r="M84" s="22">
+      <c r="M84" s="21">
         <v>0.40548340548340261</v>
       </c>
       <c r="N84" s="3">
@@ -6380,7 +6373,7 @@
       <c r="R84" s="8">
         <v>2.11854421204503</v>
       </c>
-      <c r="S84" s="20">
+      <c r="S84" s="19">
         <v>25.0418937593975</v>
       </c>
     </row>
@@ -6421,7 +6414,7 @@
       <c r="L85" s="7">
         <v>126.666666666667</v>
       </c>
-      <c r="M85" s="22">
+      <c r="M85" s="21">
         <v>0.40836940836941121</v>
       </c>
       <c r="N85" s="3">
@@ -6439,7 +6432,7 @@
       <c r="R85" s="8">
         <v>1.84219937753564</v>
       </c>
-      <c r="S85" s="20">
+      <c r="S85" s="19">
         <v>21.775406353849199</v>
       </c>
     </row>
@@ -6480,7 +6473,7 @@
       <c r="L86" s="7">
         <v>128.333333333333</v>
       </c>
-      <c r="M86" s="22">
+      <c r="M86" s="21">
         <v>0.42279942279941995</v>
       </c>
       <c r="N86" s="3">
@@ -6498,7 +6491,7 @@
       <c r="R86" s="8">
         <v>1.9806429285786</v>
       </c>
-      <c r="S86" s="20">
+      <c r="S86" s="19">
         <v>23.411854947737499</v>
       </c>
     </row>
@@ -6539,7 +6532,7 @@
       <c r="L87" s="7">
         <v>130.333333333333</v>
       </c>
-      <c r="M87" s="22">
+      <c r="M87" s="21">
         <v>0.44011544011543724</v>
       </c>
       <c r="N87" s="3">
@@ -6557,7 +6550,7 @@
       <c r="R87" s="8">
         <v>2.1352424692533001</v>
       </c>
-      <c r="S87" s="20">
+      <c r="S87" s="19">
         <v>25.239272686209201</v>
       </c>
     </row>
@@ -6598,7 +6591,7 @@
       <c r="L88" s="7">
         <v>132.333333333333</v>
       </c>
-      <c r="M88" s="22">
+      <c r="M88" s="21">
         <v>0.45743145743145458</v>
       </c>
       <c r="N88" s="3">
@@ -6616,7 +6609,7 @@
       <c r="R88" s="8">
         <v>2.33495244442233</v>
       </c>
-      <c r="S88" s="20">
+      <c r="S88" s="19">
         <v>27.599910690571299</v>
       </c>
     </row>
@@ -6657,7 +6650,7 @@
       <c r="L89" s="7">
         <v>134</v>
       </c>
-      <c r="M89" s="22">
+      <c r="M89" s="21">
         <v>0.47186147186147187</v>
       </c>
       <c r="N89" s="3">
@@ -6675,7 +6668,7 @@
       <c r="R89" s="8">
         <v>2.0884784473513198</v>
       </c>
-      <c r="S89" s="20">
+      <c r="S89" s="19">
         <v>24.686506469873802</v>
       </c>
     </row>
@@ -6716,7 +6709,7 @@
       <c r="L90" s="7">
         <v>136</v>
       </c>
-      <c r="M90" s="22">
+      <c r="M90" s="21">
         <v>0.48917748917748916</v>
       </c>
       <c r="N90" s="3">
@@ -6734,7 +6727,7 @@
       <c r="R90" s="8">
         <v>1.81942126324608</v>
       </c>
-      <c r="S90" s="20">
+      <c r="S90" s="19">
         <v>21.506161504090802</v>
       </c>
     </row>
@@ -6775,7 +6768,7 @@
       <c r="L91" s="7">
         <v>137.333333333333</v>
       </c>
-      <c r="M91" s="22">
+      <c r="M91" s="21">
         <v>0.5007215007214979</v>
       </c>
       <c r="N91" s="3">
@@ -6793,7 +6786,7 @@
       <c r="R91" s="8">
         <v>1.9080257614304099</v>
       </c>
-      <c r="S91" s="20">
+      <c r="S91" s="19">
         <v>22.553495997995299</v>
       </c>
     </row>
@@ -6834,7 +6827,7 @@
       <c r="L92" s="7">
         <v>139</v>
       </c>
-      <c r="M92" s="22">
+      <c r="M92" s="21">
         <v>0.51515151515151514</v>
       </c>
       <c r="N92" s="3">
@@ -6852,7 +6845,7 @@
       <c r="R92" s="8">
         <v>1.91711970653876</v>
       </c>
-      <c r="S92" s="20">
+      <c r="S92" s="19">
         <v>22.660989438992399</v>
       </c>
     </row>
@@ -6893,7 +6886,7 @@
       <c r="L93" s="7">
         <v>140.333333333333</v>
       </c>
-      <c r="M93" s="22">
+      <c r="M93" s="21">
         <v>0.52669552669552377</v>
       </c>
       <c r="N93" s="3">
@@ -6911,7 +6904,7 @@
       <c r="R93" s="8">
         <v>1.89368205684068</v>
       </c>
-      <c r="S93" s="20">
+      <c r="S93" s="19">
         <v>22.3839486624194</v>
       </c>
     </row>
@@ -6952,7 +6945,7 @@
       <c r="L94" s="7">
         <v>141.333333333333</v>
       </c>
-      <c r="M94" s="22">
+      <c r="M94" s="21">
         <v>0.53535353535353247</v>
       </c>
       <c r="N94" s="3">
@@ -6970,7 +6963,7 @@
       <c r="R94" s="8">
         <v>1.6008347548692199</v>
       </c>
-      <c r="S94" s="20">
+      <c r="S94" s="19">
         <v>18.922396629659801</v>
       </c>
     </row>
@@ -7011,7 +7004,7 @@
       <c r="L95" s="7">
         <v>142</v>
       </c>
-      <c r="M95" s="22">
+      <c r="M95" s="21">
         <v>0.54112554112554112</v>
       </c>
       <c r="N95" s="3">
@@ -7029,7 +7022,7 @@
       <c r="R95" s="8">
         <v>1.8421904077649001</v>
       </c>
-      <c r="S95" s="20">
+      <c r="S95" s="19">
         <v>21.775300328190301</v>
       </c>
     </row>
@@ -7070,7 +7063,7 @@
       <c r="L96" s="7">
         <v>141.666666666667</v>
       </c>
-      <c r="M96" s="22">
+      <c r="M96" s="21">
         <v>0.53823953823954107</v>
       </c>
       <c r="N96" s="3">
@@ -7088,7 +7081,7 @@
       <c r="R96" s="8">
         <v>2.3770349059326001</v>
       </c>
-      <c r="S96" s="20">
+      <c r="S96" s="19">
         <v>28.0973393136242</v>
       </c>
     </row>
@@ -7129,7 +7122,7 @@
       <c r="L97" s="7">
         <v>141.333333333333</v>
       </c>
-      <c r="M97" s="22">
+      <c r="M97" s="21">
         <v>0.53535353535353247</v>
       </c>
       <c r="N97" s="3">
@@ -7147,7 +7140,7 @@
       <c r="R97" s="8">
         <v>2.45587088918737</v>
       </c>
-      <c r="S97" s="20">
+      <c r="S97" s="19">
         <v>29.029206727983102</v>
       </c>
     </row>
@@ -7188,7 +7181,7 @@
       <c r="L98" s="7">
         <v>141</v>
       </c>
-      <c r="M98" s="22">
+      <c r="M98" s="21">
         <v>0.53246753246753242</v>
       </c>
       <c r="N98" s="3">
@@ -7206,7 +7199,7 @@
       <c r="R98" s="8">
         <v>2.3652714895606599</v>
       </c>
-      <c r="S98" s="20">
+      <c r="S98" s="19">
         <v>27.9582918387785</v>
       </c>
     </row>
@@ -7247,7 +7240,7 @@
       <c r="L99" s="11">
         <v>141</v>
       </c>
-      <c r="M99" s="22">
+      <c r="M99" s="21">
         <v>0.53246753246753242</v>
       </c>
       <c r="N99" s="12">
@@ -7265,7 +7258,7 @@
       <c r="R99" s="16">
         <v>2.13001974613316</v>
       </c>
-      <c r="S99" s="20">
+      <c r="S99" s="19">
         <v>25.177538370368399</v>
       </c>
     </row>
@@ -7306,7 +7299,7 @@
       <c r="L100" s="7">
         <v>142</v>
       </c>
-      <c r="M100" s="22">
+      <c r="M100" s="21">
         <v>0.54112554112554112</v>
       </c>
       <c r="N100" s="3">
@@ -7324,7 +7317,7 @@
       <c r="R100" s="8">
         <v>1.9097895311603099</v>
       </c>
-      <c r="S100" s="20">
+      <c r="S100" s="19">
         <v>22.574344339956301</v>
       </c>
     </row>
@@ -7365,7 +7358,7 @@
       <c r="L101" s="7">
         <v>143.666666666667</v>
       </c>
-      <c r="M101" s="22">
+      <c r="M101" s="21">
         <v>0.55555555555555847</v>
       </c>
       <c r="N101" s="3">
@@ -7383,7 +7376,7 @@
       <c r="R101" s="8">
         <v>1.8085981313086299</v>
       </c>
-      <c r="S101" s="20">
+      <c r="S101" s="19">
         <v>21.378228502466101</v>
       </c>
     </row>
@@ -7424,7 +7417,7 @@
       <c r="L102" s="7">
         <v>145.333333333333</v>
       </c>
-      <c r="M102" s="22">
+      <c r="M102" s="21">
         <v>0.56998556998556715</v>
       </c>
       <c r="N102" s="3">
@@ -7442,7 +7435,7 @@
       <c r="R102" s="8">
         <v>1.93861978977855</v>
       </c>
-      <c r="S102" s="20">
+      <c r="S102" s="19">
         <v>22.915127538753602</v>
       </c>
     </row>
@@ -7483,7 +7476,7 @@
       <c r="L103" s="7">
         <v>146.666666666667</v>
       </c>
-      <c r="M103" s="22">
+      <c r="M103" s="21">
         <v>0.58152958152958445</v>
       </c>
       <c r="N103" s="3">
@@ -7501,7 +7494,7 @@
       <c r="R103" s="8">
         <v>2.1041773144271598</v>
       </c>
-      <c r="S103" s="20">
+      <c r="S103" s="19">
         <v>24.8720722745527</v>
       </c>
     </row>
@@ -7542,7 +7535,7 @@
       <c r="L104" s="7">
         <v>147.666666666667</v>
       </c>
-      <c r="M104" s="22">
+      <c r="M104" s="21">
         <v>0.59018759018759304</v>
       </c>
       <c r="N104" s="3">
@@ -7560,7 +7553,7 @@
       <c r="R104" s="8">
         <v>2.1099622783685099</v>
       </c>
-      <c r="S104" s="20">
+      <c r="S104" s="19">
         <v>24.940452462984801</v>
       </c>
     </row>
@@ -7601,7 +7594,7 @@
       <c r="L105" s="7">
         <v>148.666666666667</v>
       </c>
-      <c r="M105" s="22">
+      <c r="M105" s="21">
         <v>0.59884559884560173</v>
       </c>
       <c r="N105" s="3">
@@ -7619,7 +7612,7 @@
       <c r="R105" s="8">
         <v>2.05295055295475</v>
       </c>
-      <c r="S105" s="20">
+      <c r="S105" s="19">
         <v>24.2665549994652</v>
       </c>
     </row>
@@ -7660,7 +7653,7 @@
       <c r="L106" s="7">
         <v>149.666666666667</v>
       </c>
-      <c r="M106" s="22">
+      <c r="M106" s="21">
         <v>0.60750360750361032</v>
       </c>
       <c r="N106" s="3">
@@ -7678,7 +7671,7 @@
       <c r="R106" s="8">
         <v>2.1275724044227302</v>
       </c>
-      <c r="S106" s="20">
+      <c r="S106" s="19">
         <v>25.148609981356199</v>
       </c>
     </row>
@@ -7719,7 +7712,7 @@
       <c r="L107" s="7">
         <v>150.666666666667</v>
       </c>
-      <c r="M107" s="22">
+      <c r="M107" s="21">
         <v>0.61616161616161902</v>
       </c>
       <c r="N107" s="3">
@@ -7737,7 +7730,7 @@
       <c r="R107" s="8">
         <v>2.0494233358902099</v>
       </c>
-      <c r="S107" s="20">
+      <c r="S107" s="19">
         <v>24.224862126361899</v>
       </c>
     </row>
@@ -7778,7 +7771,7 @@
       <c r="L108" s="7">
         <v>151.666666666667</v>
       </c>
-      <c r="M108" s="22">
+      <c r="M108" s="21">
         <v>0.62481962481962772</v>
       </c>
       <c r="N108" s="3">
@@ -7796,7 +7789,7 @@
       <c r="R108" s="8">
         <v>1.95541241707691</v>
       </c>
-      <c r="S108" s="20">
+      <c r="S108" s="19">
         <v>23.113621951263699</v>
       </c>
     </row>
@@ -7837,7 +7830,7 @@
       <c r="L109" s="7">
         <v>152.333333333333</v>
       </c>
-      <c r="M109" s="22">
+      <c r="M109" s="21">
         <v>0.63059163059162771</v>
       </c>
       <c r="N109" s="3">
@@ -7855,7 +7848,7 @@
       <c r="R109" s="8">
         <v>1.96969644702422</v>
       </c>
-      <c r="S109" s="20">
+      <c r="S109" s="19">
         <v>23.2824639128158</v>
       </c>
     </row>
@@ -7896,7 +7889,7 @@
       <c r="L110" s="7">
         <v>153</v>
       </c>
-      <c r="M110" s="22">
+      <c r="M110" s="21">
         <v>0.63636363636363635</v>
       </c>
       <c r="N110" s="3">
@@ -7914,7 +7907,7 @@
       <c r="R110" s="8">
         <v>2.1837235578355001</v>
       </c>
-      <c r="S110" s="20">
+      <c r="S110" s="19">
         <v>25.812335199001101</v>
       </c>
     </row>
@@ -7955,7 +7948,7 @@
       <c r="L111" s="7">
         <v>153.666666666667</v>
       </c>
-      <c r="M111" s="22">
+      <c r="M111" s="21">
         <v>0.642135642135645</v>
       </c>
       <c r="N111" s="3">
@@ -7973,7 +7966,7 @@
       <c r="R111" s="8">
         <v>2.2773656310514001</v>
       </c>
-      <c r="S111" s="20">
+      <c r="S111" s="19">
         <v>26.919215497061501</v>
       </c>
     </row>
@@ -8014,7 +8007,7 @@
       <c r="L112" s="7">
         <v>152.666666666667</v>
       </c>
-      <c r="M112" s="22">
+      <c r="M112" s="21">
         <v>0.6334776334776363</v>
       </c>
       <c r="N112" s="3">
@@ -8032,7 +8025,7 @@
       <c r="R112" s="8">
         <v>2.32695879847771</v>
       </c>
-      <c r="S112" s="20">
+      <c r="S112" s="19">
         <v>27.505423149854799</v>
       </c>
     </row>
@@ -8073,7 +8066,7 @@
       <c r="L113" s="7">
         <v>152</v>
       </c>
-      <c r="M113" s="22">
+      <c r="M113" s="21">
         <v>0.62770562770562766</v>
       </c>
       <c r="N113" s="3">
@@ -8091,7 +8084,7 @@
       <c r="R113" s="8">
         <v>2.2835245731997</v>
       </c>
-      <c r="S113" s="20">
+      <c r="S113" s="19">
         <v>26.992016231674899</v>
       </c>
     </row>
@@ -8132,7 +8125,7 @@
       <c r="L114" s="7">
         <v>151.333333333333</v>
       </c>
-      <c r="M114" s="22">
+      <c r="M114" s="21">
         <v>0.62193362193361901</v>
       </c>
       <c r="N114" s="3">
@@ -8150,7 +8143,7 @@
       <c r="R114" s="8">
         <v>2.28369392921442</v>
       </c>
-      <c r="S114" s="20">
+      <c r="S114" s="19">
         <v>26.994018075820499</v>
       </c>
     </row>
@@ -8191,7 +8184,7 @@
       <c r="L115" s="7">
         <v>151.333333333333</v>
       </c>
-      <c r="M115" s="22">
+      <c r="M115" s="21">
         <v>0.62193362193361901</v>
       </c>
       <c r="N115" s="3">
@@ -8209,7 +8202,7 @@
       <c r="R115" s="8">
         <v>2.3268712275761301</v>
       </c>
-      <c r="S115" s="20">
+      <c r="S115" s="19">
         <v>27.504388032814699</v>
       </c>
     </row>
@@ -8250,7 +8243,7 @@
       <c r="L116" s="7">
         <v>150.333333333333</v>
       </c>
-      <c r="M116" s="22">
+      <c r="M116" s="21">
         <v>0.61327561327561042</v>
       </c>
       <c r="N116" s="3">
@@ -8268,7 +8261,7 @@
       <c r="R116" s="8">
         <v>2.1953644975878901</v>
       </c>
-      <c r="S116" s="20">
+      <c r="S116" s="19">
         <v>25.949934959667701</v>
       </c>
     </row>
@@ -8309,7 +8302,7 @@
       <c r="L117" s="7">
         <v>149.666666666667</v>
       </c>
-      <c r="M117" s="22">
+      <c r="M117" s="21">
         <v>0.60750360750361032</v>
       </c>
       <c r="N117" s="3">
@@ -8327,7 +8320,7 @@
       <c r="R117" s="8">
         <v>2.0239407327955998</v>
       </c>
-      <c r="S117" s="20">
+      <c r="S117" s="19">
         <v>23.923649323825</v>
       </c>
     </row>
@@ -8368,7 +8361,7 @@
       <c r="L118" s="7">
         <v>150.333333333333</v>
       </c>
-      <c r="M118" s="22">
+      <c r="M118" s="21">
         <v>0.61327561327561042</v>
       </c>
       <c r="N118" s="3">
@@ -8386,7 +8379,7 @@
       <c r="R118" s="8">
         <v>2.3207865789300701</v>
       </c>
-      <c r="S118" s="20">
+      <c r="S118" s="19">
         <v>27.432465471986699</v>
       </c>
     </row>
@@ -8427,7 +8420,7 @@
       <c r="L119" s="7">
         <v>152.333333333333</v>
       </c>
-      <c r="M119" s="22">
+      <c r="M119" s="21">
         <v>0.63059163059162771</v>
       </c>
       <c r="N119" s="3">
@@ -8445,7 +8438,7 @@
       <c r="R119" s="8">
         <v>2.13865113744514</v>
       </c>
-      <c r="S119" s="20">
+      <c r="S119" s="19">
         <v>25.279564272401199</v>
       </c>
     </row>
@@ -8486,7 +8479,7 @@
       <c r="L120" s="7">
         <v>154.666666666667</v>
       </c>
-      <c r="M120" s="22">
+      <c r="M120" s="21">
         <v>0.6507936507936537</v>
       </c>
       <c r="N120" s="3">
@@ -8504,7 +8497,7 @@
       <c r="R120" s="8">
         <v>2.4149161150206901</v>
       </c>
-      <c r="S120" s="20">
+      <c r="S120" s="19">
         <v>28.545107742561299</v>
       </c>
     </row>
@@ -8545,7 +8538,7 @@
       <c r="L121" s="11">
         <v>157.333333333333</v>
       </c>
-      <c r="M121" s="22">
+      <c r="M121" s="21">
         <v>0.67388167388167097</v>
       </c>
       <c r="N121" s="12">
@@ -8563,7 +8556,7 @@
       <c r="R121" s="16">
         <v>1.9709766055170499</v>
       </c>
-      <c r="S121" s="20">
+      <c r="S121" s="19">
         <v>23.2975958098943</v>
       </c>
     </row>
@@ -8604,7 +8597,7 @@
       <c r="L122" s="7">
         <v>159</v>
       </c>
-      <c r="M122" s="22">
+      <c r="M122" s="21">
         <v>0.68831168831168832</v>
       </c>
       <c r="N122" s="3">
@@ -8622,7 +8615,7 @@
       <c r="R122" s="8">
         <v>2.3081276795490502</v>
       </c>
-      <c r="S122" s="20">
+      <c r="S122" s="19">
         <v>27.282833091596299</v>
       </c>
     </row>
@@ -8663,7 +8656,7 @@
       <c r="L123" s="7">
         <v>159.666666666667</v>
       </c>
-      <c r="M123" s="22">
+      <c r="M123" s="21">
         <v>0.69408369408369697</v>
       </c>
       <c r="N123" s="3">
@@ -8681,7 +8674,7 @@
       <c r="R123" s="8">
         <v>2.10672500932399</v>
       </c>
-      <c r="S123" s="20">
+      <c r="S123" s="19">
         <v>24.902186871441899</v>
       </c>
     </row>
@@ -8722,7 +8715,7 @@
       <c r="L124" s="7">
         <v>159.666666666667</v>
       </c>
-      <c r="M124" s="22">
+      <c r="M124" s="21">
         <v>0.69408369408369697</v>
       </c>
       <c r="N124" s="3">
@@ -8740,7 +8733,7 @@
       <c r="R124" s="8">
         <v>2.4200378781718901</v>
       </c>
-      <c r="S124" s="20">
+      <c r="S124" s="19">
         <v>28.605648678154701</v>
       </c>
     </row>
@@ -8781,7 +8774,7 @@
       <c r="L125" s="7">
         <v>159.333333333333</v>
       </c>
-      <c r="M125" s="22">
+      <c r="M125" s="21">
         <v>0.69119769119768837</v>
       </c>
       <c r="N125" s="3">
@@ -8799,7 +8792,7 @@
       <c r="R125" s="8">
         <v>2.5208750958019102</v>
       </c>
-      <c r="S125" s="20">
+      <c r="S125" s="19">
         <v>29.797577964561601</v>
       </c>
     </row>
@@ -8840,7 +8833,7 @@
       <c r="L126" s="7">
         <v>159</v>
       </c>
-      <c r="M126" s="22">
+      <c r="M126" s="21">
         <v>0.68831168831168832</v>
       </c>
       <c r="N126" s="3">
@@ -8858,7 +8851,7 @@
       <c r="R126" s="8">
         <v>2.5257158571959102</v>
       </c>
-      <c r="S126" s="20">
+      <c r="S126" s="19">
         <v>29.854797366381899</v>
       </c>
     </row>
@@ -8899,7 +8892,7 @@
       <c r="L127" s="7">
         <v>157.333333333333</v>
       </c>
-      <c r="M127" s="22">
+      <c r="M127" s="21">
         <v>0.67388167388167097</v>
       </c>
       <c r="N127" s="3">
@@ -8917,7 +8910,7 @@
       <c r="R127" s="8">
         <v>2.1710909666770299</v>
       </c>
-      <c r="S127" s="20">
+      <c r="S127" s="19">
         <v>25.6630137905087</v>
       </c>
     </row>
@@ -8958,7 +8951,7 @@
       <c r="L128" s="7">
         <v>156</v>
       </c>
-      <c r="M128" s="22">
+      <c r="M128" s="21">
         <v>0.66233766233766234</v>
       </c>
       <c r="N128" s="3">
@@ -8976,7 +8969,7 @@
       <c r="R128" s="8">
         <v>2.2199327031504499</v>
       </c>
-      <c r="S128" s="20">
+      <c r="S128" s="19">
         <v>26.240339280738201</v>
       </c>
     </row>
@@ -9017,7 +9010,7 @@
       <c r="L129" s="7">
         <v>155.333333333333</v>
       </c>
-      <c r="M129" s="22">
+      <c r="M129" s="21">
         <v>0.65656565656565369</v>
       </c>
       <c r="N129" s="3">
@@ -9035,7 +9028,7 @@
       <c r="R129" s="8">
         <v>2.3972606784202499</v>
       </c>
-      <c r="S129" s="20">
+      <c r="S129" s="19">
         <v>28.336414638537299</v>
       </c>
     </row>
@@ -9076,7 +9069,7 @@
       <c r="L130" s="7">
         <v>156</v>
       </c>
-      <c r="M130" s="22">
+      <c r="M130" s="21">
         <v>0.66233766233766234</v>
       </c>
       <c r="N130" s="3">
@@ -9094,7 +9087,7 @@
       <c r="R130" s="8">
         <v>2.80335301163394</v>
       </c>
-      <c r="S130" s="20">
+      <c r="S130" s="19">
         <v>33.136560421204997</v>
       </c>
     </row>
@@ -9135,7 +9128,7 @@
       <c r="L131" s="7">
         <v>156.333333333333</v>
       </c>
-      <c r="M131" s="22">
+      <c r="M131" s="21">
         <v>0.66522366522366239</v>
       </c>
       <c r="N131" s="3">
@@ -9153,7 +9146,7 @@
       <c r="R131" s="8">
         <v>2.68741808877011</v>
       </c>
-      <c r="S131" s="20">
+      <c r="S131" s="19">
         <v>31.766171262057998</v>
       </c>
     </row>
@@ -9194,7 +9187,7 @@
       <c r="L132" s="7">
         <v>156</v>
       </c>
-      <c r="M132" s="22">
+      <c r="M132" s="21">
         <v>0.66233766233766234</v>
       </c>
       <c r="N132" s="3">
@@ -9212,7 +9205,7 @@
       <c r="R132" s="8">
         <v>2.5622548583829299</v>
       </c>
-      <c r="S132" s="20">
+      <c r="S132" s="19">
         <v>30.286700453698899</v>
       </c>
     </row>
@@ -9253,7 +9246,7 @@
       <c r="L133" s="7">
         <v>155.666666666667</v>
       </c>
-      <c r="M133" s="22">
+      <c r="M133" s="21">
         <v>0.65945165945166229</v>
       </c>
       <c r="N133" s="3">
@@ -9271,7 +9264,7 @@
       <c r="R133" s="8">
         <v>2.2274511565266999</v>
       </c>
-      <c r="S133" s="20">
+      <c r="S133" s="19">
         <v>26.329209888022501</v>
       </c>
     </row>
@@ -9312,7 +9305,7 @@
       <c r="L134" s="7">
         <v>156</v>
       </c>
-      <c r="M134" s="22">
+      <c r="M134" s="21">
         <v>0.66233766233766234</v>
       </c>
       <c r="N134" s="3">
@@ -9330,7 +9323,7 @@
       <c r="R134" s="8">
         <v>1.4886900335087201</v>
       </c>
-      <c r="S134" s="20">
+      <c r="S134" s="19">
         <v>17.596808906722501</v>
       </c>
     </row>
@@ -9371,7 +9364,7 @@
       <c r="L135" s="7">
         <v>157.666666666667</v>
       </c>
-      <c r="M135" s="22">
+      <c r="M135" s="21">
         <v>0.67676767676767968</v>
       </c>
       <c r="N135" s="3">
@@ -9389,7 +9382,7 @@
       <c r="R135" s="8">
         <v>1.9367941184305399</v>
       </c>
-      <c r="S135" s="20">
+      <c r="S135" s="19">
         <v>22.893547499179</v>
       </c>
     </row>
@@ -9430,7 +9423,7 @@
       <c r="L136" s="7">
         <v>158.666666666667</v>
       </c>
-      <c r="M136" s="22">
+      <c r="M136" s="21">
         <v>0.68542568542568827</v>
       </c>
       <c r="N136" s="3">
@@ -9448,7 +9441,7 @@
       <c r="R136" s="8">
         <v>2.3772571936660301</v>
       </c>
-      <c r="S136" s="20">
+      <c r="S136" s="19">
         <v>28.099966828203701</v>
       </c>
     </row>
@@ -9489,7 +9482,7 @@
       <c r="L137" s="7">
         <v>158.666666666667</v>
       </c>
-      <c r="M137" s="22">
+      <c r="M137" s="21">
         <v>0.68542568542568827</v>
       </c>
       <c r="N137" s="3">
@@ -9507,7 +9500,7 @@
       <c r="R137" s="8">
         <v>3.1651548204424702</v>
       </c>
-      <c r="S137" s="20">
+      <c r="S137" s="19">
         <v>37.413177546601297</v>
       </c>
     </row>
@@ -9548,7 +9541,7 @@
       <c r="L138" s="7">
         <v>157.333333333333</v>
       </c>
-      <c r="M138" s="22">
+      <c r="M138" s="21">
         <v>0.67388167388167097</v>
       </c>
       <c r="N138" s="3">
@@ -9566,7 +9559,7 @@
       <c r="R138" s="8">
         <v>2.6060490553618498</v>
       </c>
-      <c r="S138" s="20">
+      <c r="S138" s="19">
         <v>30.804362356523001</v>
       </c>
     </row>
@@ -9607,7 +9600,7 @@
       <c r="L139" s="7">
         <v>156.333333333333</v>
       </c>
-      <c r="M139" s="22">
+      <c r="M139" s="21">
         <v>0.66522366522366239</v>
       </c>
       <c r="N139" s="3">
@@ -9625,7 +9618,7 @@
       <c r="R139" s="8">
         <v>2.30681273398437</v>
       </c>
-      <c r="S139" s="20">
+      <c r="S139" s="19">
         <v>27.267289999815301</v>
       </c>
     </row>
@@ -9666,7 +9659,7 @@
       <c r="L140" s="7">
         <v>156</v>
       </c>
-      <c r="M140" s="22">
+      <c r="M140" s="21">
         <v>0.66233766233766234</v>
       </c>
       <c r="N140" s="3">
@@ -9684,7 +9677,7 @@
       <c r="R140" s="8">
         <v>2.56680060845961</v>
       </c>
-      <c r="S140" s="20">
+      <c r="S140" s="19">
         <v>30.340432724108901</v>
       </c>
     </row>
@@ -9725,7 +9718,7 @@
       <c r="L141" s="7">
         <v>157</v>
       </c>
-      <c r="M141" s="22">
+      <c r="M141" s="21">
         <v>0.67099567099567103</v>
       </c>
       <c r="N141" s="3">
@@ -9743,7 +9736,7 @@
       <c r="R141" s="8">
         <v>2.7782161929257199</v>
       </c>
-      <c r="S141" s="20">
+      <c r="S141" s="19">
         <v>32.839434904559397</v>
       </c>
     </row>
@@ -9784,7 +9777,7 @@
       <c r="L142" s="7">
         <v>159</v>
       </c>
-      <c r="M142" s="22">
+      <c r="M142" s="21">
         <v>0.68831168831168832</v>
       </c>
       <c r="N142" s="3">
@@ -9802,7 +9795,7 @@
       <c r="R142" s="8">
         <v>2.6889569874545201</v>
       </c>
-      <c r="S142" s="20">
+      <c r="S142" s="19">
         <v>31.7843615538359</v>
       </c>
     </row>
@@ -9843,7 +9836,7 @@
       <c r="L143" s="7">
         <v>162</v>
       </c>
-      <c r="M143" s="22">
+      <c r="M143" s="21">
         <v>0.7142857142857143</v>
       </c>
       <c r="N143" s="3">
@@ -9861,7 +9854,7 @@
       <c r="R143" s="8">
         <v>2.4882364985710601</v>
       </c>
-      <c r="S143" s="20">
+      <c r="S143" s="19">
         <v>29.4117789429203</v>
       </c>
     </row>
@@ -9902,7 +9895,7 @@
       <c r="L144" s="7">
         <v>164.333333333333</v>
       </c>
-      <c r="M144" s="22">
+      <c r="M144" s="21">
         <v>0.73448773448773164</v>
       </c>
       <c r="N144" s="3">
@@ -9920,7 +9913,7 @@
       <c r="R144" s="8">
         <v>2.3191342006181799</v>
       </c>
-      <c r="S144" s="20">
+      <c r="S144" s="19">
         <v>27.412933813453598</v>
       </c>
     </row>
@@ -9961,7 +9954,7 @@
       <c r="L145" s="7">
         <v>166</v>
       </c>
-      <c r="M145" s="22">
+      <c r="M145" s="21">
         <v>0.74891774891774887</v>
       </c>
       <c r="N145" s="3">
@@ -9979,7 +9972,7 @@
       <c r="R145" s="8">
         <v>2.4674162031100502</v>
       </c>
-      <c r="S145" s="20">
+      <c r="S145" s="19">
         <v>29.165676159693199</v>
       </c>
     </row>
@@ -10020,7 +10013,7 @@
       <c r="L146" s="7">
         <v>166.333333333333</v>
       </c>
-      <c r="M146" s="22">
+      <c r="M146" s="21">
         <v>0.75180375180374892</v>
       </c>
       <c r="N146" s="3">
@@ -10038,7 +10031,7 @@
       <c r="R146" s="8">
         <v>2.5188362124309198</v>
       </c>
-      <c r="S146" s="20">
+      <c r="S146" s="19">
         <v>29.773477688308802</v>
       </c>
     </row>
@@ -10079,7 +10072,7 @@
       <c r="L147" s="7">
         <v>166</v>
       </c>
-      <c r="M147" s="22">
+      <c r="M147" s="21">
         <v>0.74891774891774887</v>
       </c>
       <c r="N147" s="3">
@@ -10097,7 +10090,7 @@
       <c r="R147" s="8">
         <v>2.54989105028563</v>
       </c>
-      <c r="S147" s="20">
+      <c r="S147" s="19">
         <v>30.140556149948399</v>
       </c>
     </row>
@@ -10138,7 +10131,7 @@
       <c r="L148" s="7">
         <v>165.333333333333</v>
       </c>
-      <c r="M148" s="22">
+      <c r="M148" s="21">
         <v>0.74314574314574022</v>
       </c>
       <c r="N148" s="3">
@@ -10156,7 +10149,7 @@
       <c r="R148" s="8">
         <v>2.4258908533694399</v>
       </c>
-      <c r="S148" s="20">
+      <c r="S148" s="19">
         <v>28.674832782144701</v>
       </c>
     </row>
@@ -10197,7 +10190,7 @@
       <c r="L149" s="11">
         <v>165</v>
       </c>
-      <c r="M149" s="22">
+      <c r="M149" s="21">
         <v>0.74025974025974028</v>
       </c>
       <c r="N149" s="12">
@@ -10215,7 +10208,7 @@
       <c r="R149" s="16">
         <v>2.0101737526146501</v>
       </c>
-      <c r="S149" s="20">
+      <c r="S149" s="19">
         <v>23.760919061638901</v>
       </c>
     </row>
@@ -10256,7 +10249,7 @@
       <c r="L150" s="7">
         <v>165.333333333333</v>
       </c>
-      <c r="M150" s="22">
+      <c r="M150" s="21">
         <v>0.74314574314574022</v>
       </c>
       <c r="N150" s="3">
@@ -10274,7 +10267,7 @@
       <c r="R150" s="8">
         <v>2.3079866901464801</v>
       </c>
-      <c r="S150" s="20">
+      <c r="S150" s="19">
         <v>27.281166550194801</v>
       </c>
     </row>
@@ -10315,7 +10308,7 @@
       <c r="L151" s="7">
         <v>166</v>
       </c>
-      <c r="M151" s="22">
+      <c r="M151" s="21">
         <v>0.74891774891774887</v>
       </c>
       <c r="N151" s="3">
@@ -10333,7 +10326,7 @@
       <c r="R151" s="8">
         <v>2.52048119957117</v>
       </c>
-      <c r="S151" s="20">
+      <c r="S151" s="19">
         <v>29.792921980746701</v>
       </c>
     </row>
@@ -10374,7 +10367,7 @@
       <c r="L152" s="7">
         <v>166.666666666667</v>
       </c>
-      <c r="M152" s="22">
+      <c r="M152" s="21">
         <v>0.75468975468975752</v>
       </c>
       <c r="N152" s="3">
@@ -10392,7 +10385,7 @@
       <c r="R152" s="8">
         <v>2.9283209305448201</v>
       </c>
-      <c r="S152" s="20">
+      <c r="S152" s="19">
         <v>34.6137225832721</v>
       </c>
     </row>
@@ -10433,7 +10426,7 @@
       <c r="L153" s="7">
         <v>166.666666666667</v>
       </c>
-      <c r="M153" s="22">
+      <c r="M153" s="21">
         <v>0.75468975468975752</v>
       </c>
       <c r="N153" s="3">
@@ -10451,7 +10444,7 @@
       <c r="R153" s="8">
         <v>2.7849357800772898</v>
       </c>
-      <c r="S153" s="20">
+      <c r="S153" s="19">
         <v>32.918862648667698</v>
       </c>
     </row>
@@ -10492,7 +10485,7 @@
       <c r="L154" s="7">
         <v>166.333333333333</v>
       </c>
-      <c r="M154" s="22">
+      <c r="M154" s="21">
         <v>0.75180375180374892</v>
       </c>
       <c r="N154" s="3">
@@ -10510,7 +10503,7 @@
       <c r="R154" s="8">
         <v>2.69519826425006</v>
       </c>
-      <c r="S154" s="20">
+      <c r="S154" s="19">
         <v>31.85813551123</v>
       </c>
     </row>
@@ -10551,7 +10544,7 @@
       <c r="L155" s="7">
         <v>166.333333333333</v>
       </c>
-      <c r="M155" s="22">
+      <c r="M155" s="21">
         <v>0.75180375180374892</v>
       </c>
       <c r="N155" s="3">
@@ -10569,7 +10562,7 @@
       <c r="R155" s="8">
         <v>2.7003825818877401</v>
       </c>
-      <c r="S155" s="20">
+      <c r="S155" s="19">
         <v>31.919415861557201</v>
       </c>
     </row>
@@ -10610,7 +10603,7 @@
       <c r="L156" s="7">
         <v>166.666666666667</v>
       </c>
-      <c r="M156" s="22">
+      <c r="M156" s="21">
         <v>0.75468975468975752</v>
       </c>
       <c r="N156" s="3">
@@ -10628,7 +10621,7 @@
       <c r="R156" s="8">
         <v>2.6156520990479999</v>
       </c>
-      <c r="S156" s="20">
+      <c r="S156" s="19">
         <v>30.917873511205599</v>
       </c>
     </row>
@@ -10669,7 +10662,7 @@
       <c r="L157" s="7">
         <v>167.333333333333</v>
       </c>
-      <c r="M157" s="22">
+      <c r="M157" s="21">
         <v>0.76046176046175762</v>
       </c>
       <c r="N157" s="3">
@@ -10687,7 +10680,7 @@
       <c r="R157" s="8">
         <v>2.7347449108142499</v>
       </c>
-      <c r="S157" s="20">
+      <c r="S157" s="19">
         <v>32.3255899623434</v>
       </c>
     </row>
@@ -10728,7 +10721,7 @@
       <c r="L158" s="7">
         <v>168</v>
       </c>
-      <c r="M158" s="22">
+      <c r="M158" s="21">
         <v>0.76623376623376627</v>
       </c>
       <c r="N158" s="3">
@@ -10746,7 +10739,7 @@
       <c r="R158" s="8">
         <v>2.7367392514002198</v>
       </c>
-      <c r="S158" s="20">
+      <c r="S158" s="19">
         <v>32.349163728134997</v>
       </c>
     </row>
@@ -10787,7 +10780,7 @@
       <c r="L159" s="7">
         <v>169.333333333333</v>
       </c>
-      <c r="M159" s="22">
+      <c r="M159" s="21">
         <v>0.7777777777777749</v>
       </c>
       <c r="N159" s="3">
@@ -10805,7 +10798,7 @@
       <c r="R159" s="8">
         <v>2.7415263194171602</v>
       </c>
-      <c r="S159" s="20">
+      <c r="S159" s="19">
         <v>32.405748456467599</v>
       </c>
     </row>
@@ -10846,7 +10839,7 @@
       <c r="L160" s="7">
         <v>170.333333333333</v>
       </c>
-      <c r="M160" s="22">
+      <c r="M160" s="21">
         <v>0.7864357864357836</v>
       </c>
       <c r="N160" s="3">
@@ -10864,7 +10857,7 @@
       <c r="R160" s="8">
         <v>2.4376164956058499</v>
       </c>
-      <c r="S160" s="20">
+      <c r="S160" s="19">
         <v>28.813433754206301</v>
       </c>
     </row>
@@ -10905,7 +10898,7 @@
       <c r="L161" s="7">
         <v>171</v>
       </c>
-      <c r="M161" s="22">
+      <c r="M161" s="21">
         <v>0.79220779220779225</v>
       </c>
       <c r="N161" s="3">
@@ -10923,7 +10916,7 @@
       <c r="R161" s="8">
         <v>2.50637771946794</v>
       </c>
-      <c r="S161" s="20">
+      <c r="S161" s="19">
         <v>29.6262141781081</v>
       </c>
     </row>
@@ -10964,7 +10957,7 @@
       <c r="L162" s="7">
         <v>171.666666666667</v>
       </c>
-      <c r="M162" s="22">
+      <c r="M162" s="21">
         <v>0.7979797979798009</v>
       </c>
       <c r="N162" s="3">
@@ -10982,7 +10975,7 @@
       <c r="R162" s="8">
         <v>2.5845202907804001</v>
       </c>
-      <c r="S162" s="20">
+      <c r="S162" s="19">
         <v>30.549885233810901</v>
       </c>
     </row>
@@ -11023,7 +11016,7 @@
       <c r="L163" s="7">
         <v>172.666666666667</v>
       </c>
-      <c r="M163" s="22">
+      <c r="M163" s="21">
         <v>0.80663780663780948</v>
       </c>
       <c r="N163" s="3">
@@ -11041,7 +11034,7 @@
       <c r="R163" s="8">
         <v>2.8651206209542899</v>
       </c>
-      <c r="S163" s="20">
+      <c r="S163" s="19">
         <v>33.866674006551897</v>
       </c>
     </row>
@@ -11082,7 +11075,7 @@
       <c r="L164" s="7">
         <v>174</v>
       </c>
-      <c r="M164" s="22">
+      <c r="M164" s="21">
         <v>0.81818181818181823</v>
       </c>
       <c r="N164" s="3">
@@ -11100,7 +11093,7 @@
       <c r="R164" s="8">
         <v>2.82775731699427</v>
       </c>
-      <c r="S164" s="20">
+      <c r="S164" s="19">
         <v>33.425027387639098</v>
       </c>
     </row>
@@ -11141,7 +11134,7 @@
       <c r="L165" s="7">
         <v>174.666666666667</v>
       </c>
-      <c r="M165" s="22">
+      <c r="M165" s="21">
         <v>0.82395382395382677</v>
       </c>
       <c r="N165" s="3">
@@ -11159,7 +11152,7 @@
       <c r="R165" s="8">
         <v>2.7155392136249499</v>
       </c>
-      <c r="S165" s="20">
+      <c r="S165" s="19">
         <v>32.098572265070302</v>
       </c>
     </row>
@@ -11200,7 +11193,7 @@
       <c r="L166" s="7">
         <v>175.333333333333</v>
       </c>
-      <c r="M166" s="22">
+      <c r="M166" s="21">
         <v>0.82972582972582687</v>
       </c>
       <c r="N166" s="3">
@@ -11218,7 +11211,7 @@
       <c r="R166" s="8">
         <v>2.4425311168000299</v>
       </c>
-      <c r="S166" s="20">
+      <c r="S166" s="19">
         <v>28.871526203310101</v>
       </c>
     </row>
@@ -11259,7 +11252,7 @@
       <c r="L167" s="7">
         <v>175.666666666667</v>
       </c>
-      <c r="M167" s="22">
+      <c r="M167" s="21">
         <v>0.83261183261183547</v>
       </c>
       <c r="N167" s="3">
@@ -11277,7 +11270,7 @@
       <c r="R167" s="8">
         <v>2.5530769823122101</v>
       </c>
-      <c r="S167" s="20">
+      <c r="S167" s="19">
         <v>30.178214920948101</v>
       </c>
     </row>
@@ -11318,7 +11311,7 @@
       <c r="L168" s="7">
         <v>176</v>
       </c>
-      <c r="M168" s="22">
+      <c r="M168" s="21">
         <v>0.83549783549783552</v>
       </c>
       <c r="N168" s="3">
@@ -11336,7 +11329,7 @@
       <c r="R168" s="8">
         <v>2.6059107996276398</v>
       </c>
-      <c r="S168" s="20">
+      <c r="S168" s="19">
         <v>30.8027281279862</v>
       </c>
     </row>
@@ -11377,7 +11370,7 @@
       <c r="L169" s="7">
         <v>176.333333333333</v>
       </c>
-      <c r="M169" s="22">
+      <c r="M169" s="21">
         <v>0.83838383838383557</v>
       </c>
       <c r="N169" s="3">
@@ -11395,7 +11388,7 @@
       <c r="R169" s="8">
         <v>2.85297651336978</v>
       </c>
-      <c r="S169" s="20">
+      <c r="S169" s="19">
         <v>33.723126635576598</v>
       </c>
     </row>
@@ -11436,7 +11429,7 @@
       <c r="L170" s="7">
         <v>177</v>
       </c>
-      <c r="M170" s="22">
+      <c r="M170" s="21">
         <v>0.8441558441558441</v>
       </c>
       <c r="N170" s="3">
@@ -11454,7 +11447,7 @@
       <c r="R170" s="8">
         <v>2.7465274574635199</v>
       </c>
-      <c r="S170" s="20">
+      <c r="S170" s="19">
         <v>32.464863563398602</v>
       </c>
     </row>
@@ -11495,7 +11488,7 @@
       <c r="L171" s="7">
         <v>177.666666666667</v>
       </c>
-      <c r="M171" s="22">
+      <c r="M171" s="21">
         <v>0.84992784992785275</v>
       </c>
       <c r="N171" s="3">
@@ -11513,7 +11506,7 @@
       <c r="R171" s="8">
         <v>2.9459769013446802</v>
       </c>
-      <c r="S171" s="20">
+      <c r="S171" s="19">
         <v>34.822422001710201</v>
       </c>
     </row>
@@ -11554,7 +11547,7 @@
       <c r="L172" s="7">
         <v>178</v>
       </c>
-      <c r="M172" s="22">
+      <c r="M172" s="21">
         <v>0.8528138528138528</v>
       </c>
       <c r="N172" s="3">
@@ -11572,7 +11565,7 @@
       <c r="R172" s="8">
         <v>2.86468914385605</v>
       </c>
-      <c r="S172" s="20">
+      <c r="S172" s="19">
         <v>33.861573804445001</v>
       </c>
     </row>
@@ -11613,7 +11606,7 @@
       <c r="L173" s="7">
         <v>177.666666666667</v>
       </c>
-      <c r="M173" s="22">
+      <c r="M173" s="21">
         <v>0.84992784992785275</v>
       </c>
       <c r="N173" s="3">
@@ -11631,7 +11624,7 @@
       <c r="R173" s="8">
         <v>2.65031507247858</v>
       </c>
-      <c r="S173" s="20">
+      <c r="S173" s="19">
         <v>31.327601329534001</v>
       </c>
     </row>
@@ -11672,7 +11665,7 @@
       <c r="L174" s="7">
         <v>177.333333333333</v>
       </c>
-      <c r="M174" s="22">
+      <c r="M174" s="21">
         <v>0.84704184704184415</v>
       </c>
       <c r="N174" s="3">
@@ -11690,7 +11683,7 @@
       <c r="R174" s="8">
         <v>2.1978793272656199</v>
       </c>
-      <c r="S174" s="20">
+      <c r="S174" s="19">
         <v>25.979661078789899</v>
       </c>
     </row>
@@ -11731,7 +11724,7 @@
       <c r="L175" s="7">
         <v>177</v>
       </c>
-      <c r="M175" s="22">
+      <c r="M175" s="21">
         <v>0.8441558441558441</v>
       </c>
       <c r="N175" s="3">
@@ -11749,7 +11742,7 @@
       <c r="R175" s="8">
         <v>2.46183185725081</v>
       </c>
-      <c r="S175" s="20">
+      <c r="S175" s="19">
         <v>29.099667343390099</v>
       </c>
     </row>
@@ -11790,7 +11783,7 @@
       <c r="L176" s="7">
         <v>177</v>
       </c>
-      <c r="M176" s="22">
+      <c r="M176" s="21">
         <v>0.8441558441558441</v>
       </c>
       <c r="N176" s="3">
@@ -11808,7 +11801,7 @@
       <c r="R176" s="8">
         <v>2.6475513528064698</v>
       </c>
-      <c r="S176" s="20">
+      <c r="S176" s="19">
         <v>31.294933248303401</v>
       </c>
     </row>
@@ -11849,7 +11842,7 @@
       <c r="L177" s="7">
         <v>176.666666666667</v>
       </c>
-      <c r="M177" s="22">
+      <c r="M177" s="21">
         <v>0.84126984126984417</v>
       </c>
       <c r="N177" s="3">
@@ -11867,7 +11860,7 @@
       <c r="R177" s="8">
         <v>2.8373629244818899</v>
       </c>
-      <c r="S177" s="20">
+      <c r="S177" s="19">
         <v>33.538568847303701</v>
       </c>
     </row>
@@ -11908,7 +11901,7 @@
       <c r="L178" s="7">
         <v>176.333333333333</v>
       </c>
-      <c r="M178" s="22">
+      <c r="M178" s="21">
         <v>0.83838383838383557</v>
       </c>
       <c r="N178" s="3">
@@ -11926,7 +11919,7 @@
       <c r="R178" s="8">
         <v>2.8560549671686202</v>
       </c>
-      <c r="S178" s="20">
+      <c r="S178" s="19">
         <v>33.759514978352499</v>
       </c>
     </row>
@@ -11967,7 +11960,7 @@
       <c r="L179" s="11">
         <v>175.666666666667</v>
       </c>
-      <c r="M179" s="22">
+      <c r="M179" s="21">
         <v>0.83261183261183547</v>
       </c>
       <c r="N179" s="12">
@@ -11985,7 +11978,7 @@
       <c r="R179" s="16">
         <v>2.7297487898704902</v>
       </c>
-      <c r="S179" s="20">
+      <c r="S179" s="19">
         <v>32.266534159225699</v>
       </c>
     </row>
@@ -12026,7 +12019,7 @@
       <c r="L180" s="7">
         <v>175</v>
       </c>
-      <c r="M180" s="22">
+      <c r="M180" s="21">
         <v>0.82683982683982682</v>
       </c>
       <c r="N180" s="3">
@@ -12044,7 +12037,7 @@
       <c r="R180" s="8">
         <v>3.1507257223447498</v>
       </c>
-      <c r="S180" s="20">
+      <c r="S180" s="19">
         <v>37.242620831498201</v>
       </c>
     </row>
@@ -12085,7 +12078,7 @@
       <c r="L181" s="7">
         <v>174.333333333333</v>
       </c>
-      <c r="M181" s="22">
+      <c r="M181" s="21">
         <v>0.82106782106781817</v>
       </c>
       <c r="N181" s="3">
@@ -12103,7 +12096,7 @@
       <c r="R181" s="8">
         <v>2.9406129955361302</v>
       </c>
-      <c r="S181" s="20">
+      <c r="S181" s="19">
         <v>34.759018859765199</v>
       </c>
     </row>
@@ -12144,7 +12137,7 @@
       <c r="L182" s="7">
         <v>174</v>
       </c>
-      <c r="M182" s="22">
+      <c r="M182" s="21">
         <v>0.81818181818181823</v>
       </c>
       <c r="N182" s="3">
@@ -12162,7 +12155,7 @@
       <c r="R182" s="8">
         <v>3.0939429818670701</v>
       </c>
-      <c r="S182" s="20">
+      <c r="S182" s="19">
         <v>36.571430045710102</v>
       </c>
     </row>
@@ -12203,7 +12196,7 @@
       <c r="L183" s="7">
         <v>174.333333333333</v>
       </c>
-      <c r="M183" s="22">
+      <c r="M183" s="21">
         <v>0.82106782106781817</v>
       </c>
       <c r="N183" s="3">
@@ -12221,7 +12214,7 @@
       <c r="R183" s="8">
         <v>3.0626295522112099</v>
       </c>
-      <c r="S183" s="20">
+      <c r="S183" s="19">
         <v>36.201294943394899</v>
       </c>
     </row>
@@ -12262,7 +12255,7 @@
       <c r="L184" s="7">
         <v>175</v>
       </c>
-      <c r="M184" s="22">
+      <c r="M184" s="21">
         <v>0.82683982683982682</v>
       </c>
       <c r="N184" s="3">
@@ -12280,7 +12273,7 @@
       <c r="R184" s="8">
         <v>2.9696803802820799</v>
       </c>
-      <c r="S184" s="20">
+      <c r="S184" s="19">
         <v>35.102604967873297</v>
       </c>
     </row>
@@ -12321,7 +12314,7 @@
       <c r="L185" s="7">
         <v>176</v>
       </c>
-      <c r="M185" s="22">
+      <c r="M185" s="21">
         <v>0.83549783549783552</v>
       </c>
       <c r="N185" s="3">
@@ -12339,7 +12332,7 @@
       <c r="R185" s="8">
         <v>2.9239556211730502</v>
       </c>
-      <c r="S185" s="20">
+      <c r="S185" s="19">
         <v>34.562123181714597</v>
       </c>
     </row>
@@ -12380,7 +12373,7 @@
       <c r="L186" s="7">
         <v>177</v>
       </c>
-      <c r="M186" s="22">
+      <c r="M186" s="21">
         <v>0.8441558441558441</v>
       </c>
       <c r="N186" s="3">
@@ -12398,7 +12391,7 @@
       <c r="R186" s="8">
         <v>2.89368416467198</v>
       </c>
-      <c r="S186" s="20">
+      <c r="S186" s="19">
         <v>34.204304546950098</v>
       </c>
     </row>
@@ -12439,7 +12432,7 @@
       <c r="L187" s="7">
         <v>178</v>
       </c>
-      <c r="M187" s="22">
+      <c r="M187" s="21">
         <v>0.8528138528138528</v>
       </c>
       <c r="N187" s="3">
@@ -12457,7 +12450,7 @@
       <c r="R187" s="8">
         <v>2.8295692147295899</v>
       </c>
-      <c r="S187" s="20">
+      <c r="S187" s="19">
         <v>33.446444618553002</v>
       </c>
     </row>
@@ -12498,7 +12491,7 @@
       <c r="L188" s="7">
         <v>179</v>
       </c>
-      <c r="M188" s="22">
+      <c r="M188" s="21">
         <v>0.8614718614718615</v>
       </c>
       <c r="N188" s="3">
@@ -12516,7 +12509,7 @@
       <c r="R188" s="8">
         <v>2.84640229262844</v>
       </c>
-      <c r="S188" s="20">
+      <c r="S188" s="19">
         <v>33.645417170548903</v>
       </c>
     </row>
@@ -12557,7 +12550,7 @@
       <c r="L189" s="7">
         <v>179.666666666667</v>
       </c>
-      <c r="M189" s="22">
+      <c r="M189" s="21">
         <v>0.86724386724387015</v>
       </c>
       <c r="N189" s="3">
@@ -12575,7 +12568,7 @@
       <c r="R189" s="8">
         <v>2.8017808981183498</v>
       </c>
-      <c r="S189" s="20">
+      <c r="S189" s="19">
         <v>33.117977519129496</v>
       </c>
     </row>
@@ -12616,7 +12609,7 @@
       <c r="L190" s="7">
         <v>180</v>
       </c>
-      <c r="M190" s="22">
+      <c r="M190" s="21">
         <v>0.87012987012987009</v>
       </c>
       <c r="N190" s="3">
@@ -12634,7 +12627,7 @@
       <c r="R190" s="8">
         <v>2.6795559124655299</v>
       </c>
-      <c r="S190" s="20">
+      <c r="S190" s="19">
         <v>31.673237735999201</v>
       </c>
     </row>
@@ -12675,7 +12668,7 @@
       <c r="L191" s="7">
         <v>180</v>
       </c>
-      <c r="M191" s="22">
+      <c r="M191" s="21">
         <v>0.87012987012987009</v>
       </c>
       <c r="N191" s="3">
@@ -12693,7 +12686,7 @@
       <c r="R191" s="8">
         <v>2.7312298979688401</v>
       </c>
-      <c r="S191" s="20">
+      <c r="S191" s="19">
         <v>32.284041347149397</v>
       </c>
     </row>
@@ -12734,7 +12727,7 @@
       <c r="L192" s="7">
         <v>180.333333333333</v>
       </c>
-      <c r="M192" s="22">
+      <c r="M192" s="21">
         <v>0.87301587301587014</v>
       </c>
       <c r="N192" s="3">
@@ -12752,7 +12745,7 @@
       <c r="R192" s="8">
         <v>2.8361222488023401</v>
       </c>
-      <c r="S192" s="20">
+      <c r="S192" s="19">
         <v>33.523903650145797</v>
       </c>
     </row>
@@ -12793,7 +12786,7 @@
       <c r="L193" s="7">
         <v>181</v>
       </c>
-      <c r="M193" s="22">
+      <c r="M193" s="21">
         <v>0.87878787878787878</v>
       </c>
       <c r="N193" s="3">
@@ -12811,7 +12804,7 @@
       <c r="R193" s="8">
         <v>3.0556229997147</v>
       </c>
-      <c r="S193" s="20">
+      <c r="S193" s="19">
         <v>36.118475173932602</v>
       </c>
     </row>
@@ -12852,7 +12845,7 @@
       <c r="L194" s="7">
         <v>181.666666666667</v>
       </c>
-      <c r="M194" s="22">
+      <c r="M194" s="21">
         <v>0.88455988455988743</v>
       </c>
       <c r="N194" s="3">
@@ -12870,7 +12863,7 @@
       <c r="R194" s="8">
         <v>2.9830743639453998</v>
       </c>
-      <c r="S194" s="20">
+      <c r="S194" s="19">
         <v>35.260926287770701</v>
       </c>
     </row>
@@ -12911,7 +12904,7 @@
       <c r="L195" s="7">
         <v>182.333333333333</v>
       </c>
-      <c r="M195" s="22">
+      <c r="M195" s="21">
         <v>0.89033189033188742</v>
       </c>
       <c r="N195" s="3">
@@ -12929,7 +12922,7 @@
       <c r="R195" s="8">
         <v>2.6900978378313001</v>
       </c>
-      <c r="S195" s="20">
+      <c r="S195" s="19">
         <v>31.797846782875901</v>
       </c>
     </row>
@@ -12970,7 +12963,7 @@
       <c r="L196" s="7">
         <v>182.666666666667</v>
       </c>
-      <c r="M196" s="22">
+      <c r="M196" s="21">
         <v>0.89321789321789613</v>
       </c>
       <c r="N196" s="3">
@@ -12988,7 +12981,7 @@
       <c r="R196" s="8">
         <v>2.7272337101808999</v>
       </c>
-      <c r="S196" s="20">
+      <c r="S196" s="19">
         <v>32.2368050848807</v>
       </c>
     </row>
@@ -13029,7 +13022,7 @@
       <c r="L197" s="7">
         <v>183.333333333333</v>
       </c>
-      <c r="M197" s="22">
+      <c r="M197" s="21">
         <v>0.89898989898989612</v>
       </c>
       <c r="N197" s="3">
@@ -13047,7 +13040,7 @@
       <c r="R197" s="8">
         <v>2.5386416968050201</v>
       </c>
-      <c r="S197" s="20">
+      <c r="S197" s="19">
         <v>30.007585068617299</v>
       </c>
     </row>
@@ -13088,7 +13081,7 @@
       <c r="L198" s="7">
         <v>183.666666666667</v>
       </c>
-      <c r="M198" s="22">
+      <c r="M198" s="21">
         <v>0.90187590187590472</v>
       </c>
       <c r="N198" s="3">
@@ -13106,7 +13099,7 @@
       <c r="R198" s="8">
         <v>2.6705818836240698</v>
       </c>
-      <c r="S198" s="20">
+      <c r="S198" s="19">
         <v>31.5671617449654</v>
       </c>
     </row>
@@ -13147,7 +13140,7 @@
       <c r="L199" s="7">
         <v>184.333333333333</v>
       </c>
-      <c r="M199" s="22">
+      <c r="M199" s="21">
         <v>0.90764790764790482</v>
       </c>
       <c r="N199" s="3">
@@ -13165,7 +13158,7 @@
       <c r="R199" s="8">
         <v>2.6930836127284499</v>
       </c>
-      <c r="S199" s="20">
+      <c r="S199" s="19">
         <v>31.833139630359899</v>
       </c>
     </row>
@@ -13206,7 +13199,7 @@
       <c r="L200" s="7">
         <v>184.333333333333</v>
       </c>
-      <c r="M200" s="22">
+      <c r="M200" s="21">
         <v>0.90764790764790482</v>
       </c>
       <c r="N200" s="3">
@@ -13224,7 +13217,7 @@
       <c r="R200" s="8">
         <v>2.9080353631615901</v>
       </c>
-      <c r="S200" s="20">
+      <c r="S200" s="19">
         <v>34.373940462903001</v>
       </c>
     </row>
@@ -13265,7 +13258,7 @@
       <c r="L201" s="7">
         <v>184.333333333333</v>
       </c>
-      <c r="M201" s="22">
+      <c r="M201" s="21">
         <v>0.90764790764790482</v>
       </c>
       <c r="N201" s="3">
@@ -13283,7 +13276,7 @@
       <c r="R201" s="8">
         <v>2.85551292514439</v>
       </c>
-      <c r="S201" s="20">
+      <c r="S201" s="19">
         <v>33.753107862226798</v>
       </c>
     </row>
@@ -13324,7 +13317,7 @@
       <c r="L202" s="7">
         <v>184.333333333333</v>
       </c>
-      <c r="M202" s="22">
+      <c r="M202" s="21">
         <v>0.90764790764790482</v>
       </c>
       <c r="N202" s="3">
@@ -13342,7 +13335,7 @@
       <c r="R202" s="8">
         <v>2.8405624555015399</v>
       </c>
-      <c r="S202" s="20">
+      <c r="S202" s="19">
         <v>33.576388362902399</v>
       </c>
     </row>
@@ -13383,7 +13376,7 @@
       <c r="L203" s="7">
         <v>184.666666666667</v>
       </c>
-      <c r="M203" s="22">
+      <c r="M203" s="21">
         <v>0.91053391053391342</v>
       </c>
       <c r="N203" s="3">
@@ -13401,7 +13394,7 @@
       <c r="R203" s="8">
         <v>2.8364848578472599</v>
       </c>
-      <c r="S203" s="20">
+      <c r="S203" s="19">
         <v>33.528189809069197</v>
       </c>
     </row>
@@ -13442,7 +13435,7 @@
       <c r="L204" s="7">
         <v>185</v>
       </c>
-      <c r="M204" s="22">
+      <c r="M204" s="21">
         <v>0.91341991341991347</v>
       </c>
       <c r="N204" s="3">
@@ -13460,7 +13453,7 @@
       <c r="R204" s="8">
         <v>2.6973089675986599</v>
       </c>
-      <c r="S204" s="20">
+      <c r="S204" s="19">
         <v>31.8830847233885</v>
       </c>
     </row>
@@ -13501,7 +13494,7 @@
       <c r="L205" s="7">
         <v>185.333333333333</v>
       </c>
-      <c r="M205" s="22">
+      <c r="M205" s="21">
         <v>0.9163059163059134</v>
       </c>
       <c r="N205" s="3">
@@ -13519,7 +13512,7 @@
       <c r="R205" s="8">
         <v>2.6955045155858799</v>
       </c>
-      <c r="S205" s="20">
+      <c r="S205" s="19">
         <v>31.8617555033792</v>
       </c>
     </row>
@@ -13560,7 +13553,7 @@
       <c r="L206" s="7">
         <v>185.666666666667</v>
       </c>
-      <c r="M206" s="22">
+      <c r="M206" s="21">
         <v>0.91919191919192211</v>
       </c>
       <c r="N206" s="3">
@@ -13578,7 +13571,7 @@
       <c r="R206" s="8">
         <v>2.7710579301302198</v>
       </c>
-      <c r="S206" s="20">
+      <c r="S206" s="19">
         <v>32.754821869151499</v>
       </c>
     </row>
@@ -13619,7 +13612,7 @@
       <c r="L207" s="7">
         <v>186</v>
       </c>
-      <c r="M207" s="22">
+      <c r="M207" s="21">
         <v>0.92207792207792205</v>
       </c>
       <c r="N207" s="3">
@@ -13637,7 +13630,7 @@
       <c r="R207" s="8">
         <v>3.15171004799753</v>
       </c>
-      <c r="S207" s="20">
+      <c r="S207" s="19">
         <v>37.254255886495599</v>
       </c>
     </row>
@@ -13678,7 +13671,7 @@
       <c r="L208" s="7">
         <v>186</v>
       </c>
-      <c r="M208" s="22">
+      <c r="M208" s="21">
         <v>0.92207792207792205</v>
       </c>
       <c r="N208" s="3">
@@ -13696,7 +13689,7 @@
       <c r="R208" s="8">
         <v>3.11663884683467</v>
       </c>
-      <c r="S208" s="20">
+      <c r="S208" s="19">
         <v>36.839702681260803</v>
       </c>
     </row>
@@ -13737,7 +13730,7 @@
       <c r="L209" s="7">
         <v>186</v>
       </c>
-      <c r="M209" s="22">
+      <c r="M209" s="21">
         <v>0.92207792207792205</v>
       </c>
       <c r="N209" s="3">
@@ -13755,7 +13748,7 @@
       <c r="R209" s="8">
         <v>3.0037581594473801</v>
       </c>
-      <c r="S209" s="20">
+      <c r="S209" s="19">
         <v>35.505415596304701</v>
       </c>
     </row>
@@ -13796,7 +13789,7 @@
       <c r="L210" s="7">
         <v>186.333333333333</v>
       </c>
-      <c r="M210" s="22">
+      <c r="M210" s="21">
         <v>0.9249639249639221</v>
       </c>
       <c r="N210" s="3">
@@ -13814,7 +13807,7 @@
       <c r="R210" s="8">
         <v>2.9297898186275</v>
       </c>
-      <c r="S210" s="20">
+      <c r="S210" s="19">
         <v>34.6310853265662</v>
       </c>
     </row>
@@ -13855,7 +13848,7 @@
       <c r="L211" s="7">
         <v>186.666666666667</v>
       </c>
-      <c r="M211" s="22">
+      <c r="M211" s="21">
         <v>0.9278499278499307</v>
       </c>
       <c r="N211" s="3">
@@ -13873,7 +13866,7 @@
       <c r="R211" s="8">
         <v>2.8698687640495599</v>
       </c>
-      <c r="S211" s="20">
+      <c r="S211" s="19">
         <v>33.922798629427497</v>
       </c>
     </row>
@@ -13914,7 +13907,7 @@
       <c r="L212" s="7">
         <v>187</v>
       </c>
-      <c r="M212" s="22">
+      <c r="M212" s="21">
         <v>0.93073593073593075</v>
       </c>
       <c r="N212" s="3">
@@ -13932,7 +13925,7 @@
       <c r="R212" s="8">
         <v>2.6908820852007298</v>
       </c>
-      <c r="S212" s="20">
+      <c r="S212" s="19">
         <v>31.8071168463444</v>
       </c>
     </row>
@@ -13973,7 +13966,7 @@
       <c r="L213" s="7">
         <v>187.333333333333</v>
       </c>
-      <c r="M213" s="22">
+      <c r="M213" s="21">
         <v>0.9336219336219308</v>
       </c>
       <c r="N213" s="3">
@@ -13991,7 +13984,7 @@
       <c r="R213" s="8">
         <v>2.7821813209862798</v>
       </c>
-      <c r="S213" s="20">
+      <c r="S213" s="19">
         <v>32.886304030570699</v>
       </c>
     </row>
@@ -14032,7 +14025,7 @@
       <c r="L214" s="11">
         <v>187.666666666667</v>
       </c>
-      <c r="M214" s="22">
+      <c r="M214" s="21">
         <v>0.9365079365079394</v>
       </c>
       <c r="N214" s="12">
@@ -14050,7 +14043,7 @@
       <c r="R214" s="16">
         <v>2.8728908466981702</v>
       </c>
-      <c r="S214" s="20">
+      <c r="S214" s="19">
         <v>33.958520646550497</v>
       </c>
     </row>
@@ -14091,7 +14084,7 @@
       <c r="L215" s="7">
         <v>188</v>
       </c>
-      <c r="M215" s="22">
+      <c r="M215" s="21">
         <v>0.93939393939393945</v>
       </c>
       <c r="N215" s="3">
@@ -14109,7 +14102,7 @@
       <c r="R215" s="8">
         <v>3.1917485497337399</v>
       </c>
-      <c r="S215" s="20">
+      <c r="S215" s="19">
         <v>37.727524228531202</v>
       </c>
     </row>
@@ -14150,7 +14143,7 @@
       <c r="L216" s="7">
         <v>188.333333333333</v>
       </c>
-      <c r="M216" s="22">
+      <c r="M216" s="21">
         <v>0.94227994227993939</v>
       </c>
       <c r="N216" s="3">
@@ -14168,7 +14161,7 @@
       <c r="R216" s="8">
         <v>3.1770105014796499</v>
       </c>
-      <c r="S216" s="20">
+      <c r="S216" s="19">
         <v>37.553315620326799</v>
       </c>
     </row>
@@ -14209,7 +14202,7 @@
       <c r="L217" s="7">
         <v>188.333333333333</v>
       </c>
-      <c r="M217" s="22">
+      <c r="M217" s="21">
         <v>0.94227994227993939</v>
       </c>
       <c r="N217" s="3">
@@ -14227,7 +14220,7 @@
       <c r="R217" s="8">
         <v>3.1165570286118398</v>
       </c>
-      <c r="S217" s="20">
+      <c r="S217" s="19">
         <v>36.838735562787697</v>
       </c>
     </row>
@@ -14268,7 +14261,7 @@
       <c r="L218" s="7">
         <v>188.666666666667</v>
       </c>
-      <c r="M218" s="22">
+      <c r="M218" s="21">
         <v>0.94516594516594798</v>
       </c>
       <c r="N218" s="3">
@@ -14286,7 +14279,7 @@
       <c r="R218" s="8">
         <v>2.8536474997579999</v>
       </c>
-      <c r="S218" s="20">
+      <c r="S218" s="19">
         <v>33.731057916761301</v>
       </c>
     </row>
@@ -14327,7 +14320,7 @@
       <c r="L219" s="7">
         <v>188.666666666667</v>
       </c>
-      <c r="M219" s="22">
+      <c r="M219" s="21">
         <v>0.94516594516594798</v>
       </c>
       <c r="N219" s="3">
@@ -14345,7 +14338,7 @@
       <c r="R219" s="8">
         <v>2.7566140057139998</v>
       </c>
-      <c r="S219" s="20">
+      <c r="S219" s="19">
         <v>32.584089902056803</v>
       </c>
     </row>
@@ -14386,7 +14379,7 @@
       <c r="L220" s="7">
         <v>189</v>
       </c>
-      <c r="M220" s="22">
+      <c r="M220" s="21">
         <v>0.94805194805194803</v>
       </c>
       <c r="N220" s="3">
@@ -14404,7 +14397,7 @@
       <c r="R220" s="8">
         <v>2.57680996866487</v>
       </c>
-      <c r="S220" s="20">
+      <c r="S220" s="19">
         <v>30.458746674525699</v>
       </c>
     </row>
@@ -14445,7 +14438,7 @@
       <c r="L221" s="7">
         <v>189</v>
       </c>
-      <c r="M221" s="22">
+      <c r="M221" s="21">
         <v>0.94805194805194803</v>
       </c>
       <c r="N221" s="3">
@@ -14463,7 +14456,7 @@
       <c r="R221" s="8">
         <v>2.5990515505948402</v>
       </c>
-      <c r="S221" s="20">
+      <c r="S221" s="19">
         <v>30.721649534217899</v>
       </c>
     </row>
@@ -14504,7 +14497,7 @@
       <c r="L222" s="7">
         <v>189.333333333333</v>
       </c>
-      <c r="M222" s="22">
+      <c r="M222" s="21">
         <v>0.95093795093794808</v>
       </c>
       <c r="N222" s="3">
@@ -14522,7 +14515,7 @@
       <c r="R222" s="8">
         <v>2.5922983092976</v>
       </c>
-      <c r="S222" s="20">
+      <c r="S222" s="19">
         <v>30.6418239869693</v>
       </c>
     </row>
@@ -14563,7 +14556,7 @@
       <c r="L223" s="7">
         <v>189.333333333333</v>
       </c>
-      <c r="M223" s="22">
+      <c r="M223" s="21">
         <v>0.95093795093794808</v>
       </c>
       <c r="N223" s="3">
@@ -14581,7 +14574,7 @@
       <c r="R223" s="8">
         <v>2.8724200054355902</v>
       </c>
-      <c r="S223" s="20">
+      <c r="S223" s="19">
         <v>33.952955146992799</v>
       </c>
     </row>
@@ -14622,7 +14615,7 @@
       <c r="L224" s="7">
         <v>189.333333333333</v>
       </c>
-      <c r="M224" s="22">
+      <c r="M224" s="21">
         <v>0.95093795093794808</v>
       </c>
       <c r="N224" s="3">
@@ -14640,7 +14633,7 @@
       <c r="R224" s="8">
         <v>2.97241669588449</v>
       </c>
-      <c r="S224" s="20">
+      <c r="S224" s="19">
         <v>35.134949123930099</v>
       </c>
     </row>
@@ -14681,7 +14674,7 @@
       <c r="L225" s="7">
         <v>189</v>
       </c>
-      <c r="M225" s="22">
+      <c r="M225" s="21">
         <v>0.94805194805194803</v>
       </c>
       <c r="N225" s="3">
@@ -14699,7 +14692,7 @@
       <c r="R225" s="8">
         <v>3.1289224919115899</v>
       </c>
-      <c r="S225" s="20">
+      <c r="S225" s="19">
         <v>36.984899431579102</v>
       </c>
     </row>
@@ -14740,7 +14733,7 @@
       <c r="L226" s="7">
         <v>189</v>
       </c>
-      <c r="M226" s="22">
+      <c r="M226" s="21">
         <v>0.94805194805194803</v>
       </c>
       <c r="N226" s="3">
@@ -14758,7 +14751,7 @@
       <c r="R226" s="8">
         <v>2.9387810747365002</v>
       </c>
-      <c r="S226" s="20">
+      <c r="S226" s="19">
         <v>34.737364949604</v>
       </c>
     </row>
@@ -14799,7 +14792,7 @@
       <c r="L227" s="7">
         <v>189</v>
       </c>
-      <c r="M227" s="22">
+      <c r="M227" s="21">
         <v>0.94805194805194803</v>
       </c>
       <c r="N227" s="3">
@@ -14817,7 +14810,7 @@
       <c r="R227" s="8">
         <v>2.9736241537416901</v>
       </c>
-      <c r="S227" s="20">
+      <c r="S227" s="19">
         <v>35.149221675433701</v>
       </c>
     </row>
@@ -14858,7 +14851,7 @@
       <c r="L228" s="7">
         <v>189.333333333333</v>
       </c>
-      <c r="M228" s="22">
+      <c r="M228" s="21">
         <v>0.95093795093794808</v>
       </c>
       <c r="N228" s="3">
@@ -14876,7 +14869,7 @@
       <c r="R228" s="8">
         <v>2.9957290663495399</v>
       </c>
-      <c r="S228" s="20">
+      <c r="S228" s="19">
         <v>35.410509058505198</v>
       </c>
     </row>
@@ -14917,7 +14910,7 @@
       <c r="L229" s="7">
         <v>189.333333333333</v>
       </c>
-      <c r="M229" s="22">
+      <c r="M229" s="21">
         <v>0.95093795093794808</v>
       </c>
       <c r="N229" s="3">
@@ -14935,7 +14928,7 @@
       <c r="R229" s="8">
         <v>3.0742195922755999</v>
       </c>
-      <c r="S229" s="20">
+      <c r="S229" s="19">
         <v>36.338293052903097</v>
       </c>
     </row>
@@ -14976,7 +14969,7 @@
       <c r="L230" s="7">
         <v>189.666666666667</v>
       </c>
-      <c r="M230" s="22">
+      <c r="M230" s="21">
         <v>0.95382395382395668</v>
       </c>
       <c r="N230" s="3">
@@ -14994,7 +14987,7 @@
       <c r="R230" s="8">
         <v>3.1109202782423</v>
       </c>
-      <c r="S230" s="20">
+      <c r="S230" s="19">
         <v>36.772107307828698</v>
       </c>
     </row>
@@ -15035,7 +15028,7 @@
       <c r="L231" s="7">
         <v>190</v>
       </c>
-      <c r="M231" s="22">
+      <c r="M231" s="21">
         <v>0.95670995670995673</v>
       </c>
       <c r="N231" s="3">
@@ -15053,7 +15046,7 @@
       <c r="R231" s="8">
         <v>3.12784361173513</v>
       </c>
-      <c r="S231" s="20">
+      <c r="S231" s="19">
         <v>36.9721467108171</v>
       </c>
     </row>
@@ -15094,7 +15087,7 @@
       <c r="L232" s="7">
         <v>190.666666666667</v>
       </c>
-      <c r="M232" s="22">
+      <c r="M232" s="21">
         <v>0.96248196248196538</v>
       </c>
       <c r="N232" s="3">
@@ -15112,7 +15105,7 @@
       <c r="R232" s="8">
         <v>3.0676987469774799</v>
       </c>
-      <c r="S232" s="20">
+      <c r="S232" s="19">
         <v>36.261214503280002</v>
       </c>
     </row>
@@ -15153,7 +15146,7 @@
       <c r="L233" s="7">
         <v>191</v>
       </c>
-      <c r="M233" s="22">
+      <c r="M233" s="21">
         <v>0.96536796536796532</v>
       </c>
       <c r="N233" s="3">
@@ -15171,7 +15164,7 @@
       <c r="R233" s="8">
         <v>2.9853595544270402</v>
       </c>
-      <c r="S233" s="20">
+      <c r="S233" s="19">
         <v>35.287937995591399</v>
       </c>
     </row>
@@ -15212,7 +15205,7 @@
       <c r="L234" s="7">
         <v>191</v>
       </c>
-      <c r="M234" s="22">
+      <c r="M234" s="21">
         <v>0.96536796536796532</v>
       </c>
       <c r="N234" s="3">
@@ -15230,7 +15223,7 @@
       <c r="R234" s="8">
         <v>2.6166227277210901</v>
       </c>
-      <c r="S234" s="20">
+      <c r="S234" s="19">
         <v>30.929346663369898</v>
       </c>
     </row>
@@ -15271,7 +15264,7 @@
       <c r="L235" s="7">
         <v>191.333333333333</v>
       </c>
-      <c r="M235" s="22">
+      <c r="M235" s="21">
         <v>0.96825396825396537</v>
       </c>
       <c r="N235" s="3">
@@ -15289,7 +15282,7 @@
       <c r="R235" s="8">
         <v>2.4863930623631698</v>
       </c>
-      <c r="S235" s="20">
+      <c r="S235" s="19">
         <v>29.389988916822301</v>
       </c>
     </row>
@@ -15330,7 +15323,7 @@
       <c r="L236" s="7">
         <v>191.666666666667</v>
       </c>
-      <c r="M236" s="22">
+      <c r="M236" s="21">
         <v>0.97113997113997397</v>
       </c>
       <c r="N236" s="3">
@@ -15348,7 +15341,7 @@
       <c r="R236" s="8">
         <v>2.7292023453419199</v>
       </c>
-      <c r="S236" s="20">
+      <c r="S236" s="19">
         <v>32.260075004041603</v>
       </c>
     </row>
@@ -15389,7 +15382,7 @@
       <c r="L237" s="7">
         <v>192</v>
       </c>
-      <c r="M237" s="22">
+      <c r="M237" s="21">
         <v>0.97402597402597402</v>
       </c>
       <c r="N237" s="3">
@@ -15407,7 +15400,7 @@
       <c r="R237" s="8">
         <v>3.1015771405958099</v>
       </c>
-      <c r="S237" s="20">
+      <c r="S237" s="19">
         <v>36.661668328555599</v>
       </c>
     </row>
@@ -15448,7 +15441,7 @@
       <c r="L238" s="7">
         <v>192</v>
       </c>
-      <c r="M238" s="22">
+      <c r="M238" s="21">
         <v>0.97402597402597402</v>
       </c>
       <c r="N238" s="3">
@@ -15466,7 +15459,7 @@
       <c r="R238" s="8">
         <v>3.4951940412749698</v>
       </c>
-      <c r="S238" s="20">
+      <c r="S238" s="19">
         <v>41.314350369680596</v>
       </c>
     </row>
@@ -15507,7 +15500,7 @@
       <c r="L239" s="7">
         <v>192</v>
       </c>
-      <c r="M239" s="22">
+      <c r="M239" s="21">
         <v>0.97402597402597402</v>
       </c>
       <c r="N239" s="3">
@@ -15525,7 +15518,7 @@
       <c r="R239" s="8">
         <v>3.3266224037772298</v>
       </c>
-      <c r="S239" s="20">
+      <c r="S239" s="19">
         <v>39.321777822425901</v>
       </c>
     </row>
@@ -15566,7 +15559,7 @@
       <c r="L240" s="7">
         <v>192</v>
       </c>
-      <c r="M240" s="22">
+      <c r="M240" s="21">
         <v>0.97402597402597402</v>
       </c>
       <c r="N240" s="3">
@@ -15584,7 +15577,7 @@
       <c r="R240" s="8">
         <v>3.1329654962675102</v>
       </c>
-      <c r="S240" s="20">
+      <c r="S240" s="19">
         <v>37.032689081176201</v>
       </c>
     </row>
@@ -15625,7 +15618,7 @@
       <c r="L241" s="7">
         <v>192</v>
       </c>
-      <c r="M241" s="22">
+      <c r="M241" s="21">
         <v>0.97402597402597402</v>
       </c>
       <c r="N241" s="3">
@@ -15643,7 +15636,7 @@
       <c r="R241" s="8">
         <v>2.9474776640731402</v>
       </c>
-      <c r="S241" s="20">
+      <c r="S241" s="19">
         <v>34.840161513866903</v>
       </c>
     </row>
@@ -15684,7 +15677,7 @@
       <c r="L242" s="7">
         <v>192.333333333333</v>
       </c>
-      <c r="M242" s="22">
+      <c r="M242" s="21">
         <v>0.97691197691197407</v>
       </c>
       <c r="N242" s="3">
@@ -15702,7 +15695,7 @@
       <c r="R242" s="8">
         <v>2.9642155270667501</v>
       </c>
-      <c r="S242" s="20">
+      <c r="S242" s="19">
         <v>35.038008594169597</v>
       </c>
     </row>
@@ -15743,7 +15736,7 @@
       <c r="L243" s="7">
         <v>192.666666666667</v>
       </c>
-      <c r="M243" s="22">
+      <c r="M243" s="21">
         <v>0.97979797979798267</v>
       </c>
       <c r="N243" s="3">
@@ -15761,7 +15754,7 @@
       <c r="R243" s="8">
         <v>2.8336037558802398</v>
       </c>
-      <c r="S243" s="20">
+      <c r="S243" s="19">
         <v>33.494134230262901</v>
       </c>
     </row>
@@ -15802,7 +15795,7 @@
       <c r="L244" s="7">
         <v>193</v>
       </c>
-      <c r="M244" s="22">
+      <c r="M244" s="21">
         <v>0.98268398268398272</v>
       </c>
       <c r="N244" s="3">
@@ -15820,7 +15813,7 @@
       <c r="R244" s="8">
         <v>2.7724489016381799</v>
       </c>
-      <c r="S244" s="20">
+      <c r="S244" s="19">
         <v>32.771263612744498</v>
       </c>
     </row>
@@ -15861,7 +15854,7 @@
       <c r="L245" s="7">
         <v>193</v>
       </c>
-      <c r="M245" s="22">
+      <c r="M245" s="21">
         <v>0.98268398268398272</v>
       </c>
       <c r="N245" s="3">
@@ -15879,7 +15872,7 @@
       <c r="R245" s="8">
         <v>2.41946734430435</v>
       </c>
-      <c r="S245" s="20">
+      <c r="S245" s="19">
         <v>28.598904779011299</v>
       </c>
     </row>
@@ -15920,7 +15913,7 @@
       <c r="L246" s="7">
         <v>193</v>
       </c>
-      <c r="M246" s="22">
+      <c r="M246" s="21">
         <v>0.98268398268398272</v>
       </c>
       <c r="N246" s="3">
@@ -15938,7 +15931,7 @@
       <c r="R246" s="8">
         <v>2.56863155755453</v>
       </c>
-      <c r="S246" s="20">
+      <c r="S246" s="19">
         <v>30.362075148398699</v>
       </c>
     </row>
@@ -15979,7 +15972,7 @@
       <c r="L247" s="7">
         <v>193</v>
       </c>
-      <c r="M247" s="22">
+      <c r="M247" s="21">
         <v>0.98268398268398272</v>
       </c>
       <c r="N247" s="3">
@@ -15997,7 +15990,7 @@
       <c r="R247" s="8">
         <v>2.5156037362647501</v>
       </c>
-      <c r="S247" s="20">
+      <c r="S247" s="19">
         <v>29.735268750174299</v>
       </c>
     </row>
@@ -16038,7 +16031,7 @@
       <c r="L248" s="7">
         <v>193</v>
       </c>
-      <c r="M248" s="22">
+      <c r="M248" s="21">
         <v>0.98268398268398272</v>
       </c>
       <c r="N248" s="3">
@@ -16056,7 +16049,7 @@
       <c r="R248" s="8">
         <v>2.6957882224937202</v>
       </c>
-      <c r="S248" s="20">
+      <c r="S248" s="19">
         <v>31.865109012928201</v>
       </c>
     </row>
@@ -16097,7 +16090,7 @@
       <c r="L249" s="7">
         <v>193</v>
       </c>
-      <c r="M249" s="22">
+      <c r="M249" s="21">
         <v>0.98268398268398272</v>
       </c>
       <c r="N249" s="3">
@@ -16115,7 +16108,7 @@
       <c r="R249" s="8">
         <v>2.7147014737852002</v>
       </c>
-      <c r="S249" s="20">
+      <c r="S249" s="19">
         <v>32.088669902898303</v>
       </c>
     </row>
@@ -16156,7 +16149,7 @@
       <c r="L250" s="7">
         <v>193</v>
       </c>
-      <c r="M250" s="22">
+      <c r="M250" s="21">
         <v>0.98268398268398272</v>
       </c>
       <c r="N250" s="3">
@@ -16174,7 +16167,7 @@
       <c r="R250" s="8">
         <v>2.9956403590876701</v>
       </c>
-      <c r="S250" s="20">
+      <c r="S250" s="19">
         <v>35.409460509310499</v>
       </c>
     </row>
@@ -16215,7 +16208,7 @@
       <c r="L251" s="7">
         <v>193</v>
       </c>
-      <c r="M251" s="22">
+      <c r="M251" s="21">
         <v>0.98268398268398272</v>
       </c>
       <c r="N251" s="3">
@@ -16233,7 +16226,7 @@
       <c r="R251" s="8">
         <v>3.1832447401364998</v>
       </c>
-      <c r="S251" s="20">
+      <c r="S251" s="19">
         <v>37.6270063845922</v>
       </c>
     </row>
@@ -16274,7 +16267,7 @@
       <c r="L252" s="7">
         <v>193.333333333333</v>
       </c>
-      <c r="M252" s="22">
+      <c r="M252" s="21">
         <v>0.98556998556998265</v>
       </c>
       <c r="N252" s="3">
@@ -16292,7 +16285,7 @@
       <c r="R252" s="8">
         <v>3.2451543909069902</v>
       </c>
-      <c r="S252" s="20">
+      <c r="S252" s="19">
         <v>38.358798946891099</v>
       </c>
     </row>
@@ -16333,7 +16326,7 @@
       <c r="L253" s="7">
         <v>193.666666666667</v>
       </c>
-      <c r="M253" s="22">
+      <c r="M253" s="21">
         <v>0.98845598845599136</v>
       </c>
       <c r="N253" s="3">
@@ -16351,7 +16344,7 @@
       <c r="R253" s="8">
         <v>3.0892283393782001</v>
       </c>
-      <c r="S253" s="20">
+      <c r="S253" s="19">
         <v>36.5157014110899</v>
       </c>
     </row>
@@ -16392,7 +16385,7 @@
       <c r="L254" s="7">
         <v>194</v>
       </c>
-      <c r="M254" s="22">
+      <c r="M254" s="21">
         <v>0.9913419913419913</v>
       </c>
       <c r="N254" s="3">
@@ -16410,7 +16403,7 @@
       <c r="R254" s="8">
         <v>3.1175315194423399</v>
       </c>
-      <c r="S254" s="20">
+      <c r="S254" s="19">
         <v>36.850254366930798</v>
       </c>
     </row>
@@ -16451,7 +16444,7 @@
       <c r="L255" s="7">
         <v>194</v>
       </c>
-      <c r="M255" s="22">
+      <c r="M255" s="21">
         <v>0.9913419913419913</v>
       </c>
       <c r="N255" s="3">
@@ -16469,7 +16462,7 @@
       <c r="R255" s="8">
         <v>2.9628105669464402</v>
       </c>
-      <c r="S255" s="20">
+      <c r="S255" s="19">
         <v>35.021401500548897</v>
       </c>
     </row>
@@ -16510,7 +16503,7 @@
       <c r="L256" s="7">
         <v>194</v>
       </c>
-      <c r="M256" s="22">
+      <c r="M256" s="21">
         <v>0.9913419913419913</v>
       </c>
       <c r="N256" s="3">
@@ -16528,7 +16521,7 @@
       <c r="R256" s="8">
         <v>2.9725328979785002</v>
       </c>
-      <c r="S256" s="20">
+      <c r="S256" s="19">
         <v>35.136322671140597</v>
       </c>
     </row>
@@ -16569,7 +16562,7 @@
       <c r="L257" s="7">
         <v>194.333333333333</v>
       </c>
-      <c r="M257" s="22">
+      <c r="M257" s="21">
         <v>0.99422799422799102</v>
       </c>
       <c r="N257" s="3">
@@ -16587,7 +16580,7 @@
       <c r="R257" s="8">
         <v>2.9009015618731699</v>
       </c>
-      <c r="S257" s="20">
+      <c r="S257" s="19">
         <v>34.2896165706048</v>
       </c>
     </row>
@@ -16628,7 +16621,7 @@
       <c r="L258" s="7">
         <v>194.333333333333</v>
       </c>
-      <c r="M258" s="22">
+      <c r="M258" s="21">
         <v>0.99422799422799135</v>
       </c>
       <c r="N258" s="3">
@@ -16646,7 +16639,7 @@
       <c r="R258" s="8">
         <v>2.9907842902226598</v>
       </c>
-      <c r="S258" s="20">
+      <c r="S258" s="19">
         <v>35.352060168116601</v>
       </c>
     </row>
@@ -16687,7 +16680,7 @@
       <c r="L259" s="7">
         <v>194.333333333333</v>
       </c>
-      <c r="M259" s="22">
+      <c r="M259" s="21">
         <v>0.99422799422799135</v>
       </c>
       <c r="N259" s="3">
@@ -16705,7 +16698,7 @@
       <c r="R259" s="8">
         <v>2.8638121330736599</v>
       </c>
-      <c r="S259" s="20">
+      <c r="S259" s="19">
         <v>33.851207246733502</v>
       </c>
     </row>
@@ -16746,7 +16739,7 @@
       <c r="L260" s="7">
         <v>194</v>
       </c>
-      <c r="M260" s="22">
+      <c r="M260" s="21">
         <v>0.9913419913419913</v>
       </c>
       <c r="N260" s="3">
@@ -16764,7 +16757,7 @@
       <c r="R260" s="8">
         <v>2.8830858031264599</v>
       </c>
-      <c r="S260" s="20">
+      <c r="S260" s="19">
         <v>34.079028405750101</v>
       </c>
     </row>
@@ -16805,7 +16798,7 @@
       <c r="L261" s="7">
         <v>194</v>
       </c>
-      <c r="M261" s="22">
+      <c r="M261" s="21">
         <v>0.9913419913419913</v>
       </c>
       <c r="N261" s="3">
@@ -16823,7 +16816,7 @@
       <c r="R261" s="8">
         <v>2.7588875311130399</v>
       </c>
-      <c r="S261" s="20">
+      <c r="S261" s="19">
         <v>32.610963724740401</v>
       </c>
     </row>
@@ -16864,7 +16857,7 @@
       <c r="L262" s="7">
         <v>194</v>
       </c>
-      <c r="M262" s="22">
+      <c r="M262" s="21">
         <v>0.9913419913419913</v>
       </c>
       <c r="N262" s="3">
@@ -16882,7 +16875,7 @@
       <c r="R262" s="8">
         <v>2.6832649645278002</v>
       </c>
-      <c r="S262" s="20">
+      <c r="S262" s="19">
         <v>31.717079958957498</v>
       </c>
     </row>
@@ -16923,7 +16916,7 @@
       <c r="L263" s="7">
         <v>194.333333333333</v>
       </c>
-      <c r="M263" s="22">
+      <c r="M263" s="21">
         <v>0.99422799422799135</v>
       </c>
       <c r="N263" s="3">
@@ -16941,7 +16934,7 @@
       <c r="R263" s="8">
         <v>2.6417065429800402</v>
       </c>
-      <c r="S263" s="20">
+      <c r="S263" s="19">
         <v>31.2258456617026</v>
       </c>
     </row>
@@ -16982,7 +16975,7 @@
       <c r="L264" s="11">
         <v>194.666666666667</v>
       </c>
-      <c r="M264" s="22">
+      <c r="M264" s="21">
         <v>0.99711399711399995</v>
       </c>
       <c r="N264" s="12">
@@ -17000,64 +16993,64 @@
       <c r="R264" s="16">
         <v>2.4912460322004302</v>
       </c>
-      <c r="S264" s="20">
+      <c r="S264" s="19">
         <v>29.447352626482601</v>
       </c>
     </row>
     <row r="265" spans="1:19">
       <c r="B265" s="1"/>
       <c r="L265" s="7"/>
-      <c r="M265" s="22"/>
+      <c r="M265" s="21"/>
       <c r="N265" s="3"/>
       <c r="O265" s="4"/>
       <c r="P265" s="5"/>
       <c r="Q265" s="6"/>
       <c r="R265" s="8"/>
-      <c r="S265" s="20"/>
+      <c r="S265" s="19"/>
     </row>
     <row r="266" spans="1:19">
       <c r="B266" s="1"/>
       <c r="L266" s="7"/>
-      <c r="M266" s="22"/>
+      <c r="M266" s="21"/>
       <c r="N266" s="3"/>
       <c r="O266" s="4"/>
       <c r="P266" s="5"/>
       <c r="Q266" s="6"/>
       <c r="R266" s="8"/>
-      <c r="S266" s="20"/>
+      <c r="S266" s="19"/>
     </row>
     <row r="267" spans="1:19">
       <c r="B267" s="1"/>
       <c r="L267" s="7"/>
-      <c r="M267" s="22"/>
+      <c r="M267" s="21"/>
       <c r="N267" s="3"/>
       <c r="O267" s="4"/>
       <c r="P267" s="5"/>
       <c r="Q267" s="6"/>
       <c r="R267" s="8"/>
-      <c r="S267" s="20"/>
+      <c r="S267" s="19"/>
     </row>
     <row r="268" spans="1:19">
       <c r="B268" s="1"/>
       <c r="L268" s="7"/>
-      <c r="M268" s="22"/>
+      <c r="M268" s="21"/>
       <c r="N268" s="3"/>
       <c r="O268" s="4"/>
       <c r="P268" s="5"/>
       <c r="Q268" s="6"/>
       <c r="R268" s="8"/>
-      <c r="S268" s="20"/>
+      <c r="S268" s="19"/>
     </row>
     <row r="269" spans="1:19">
       <c r="B269" s="1"/>
       <c r="L269" s="7"/>
-      <c r="M269" s="22"/>
+      <c r="M269" s="21"/>
       <c r="N269" s="3"/>
       <c r="O269" s="4"/>
       <c r="P269" s="5"/>
       <c r="Q269" s="6"/>
       <c r="R269" s="8"/>
-      <c r="S269" s="20"/>
+      <c r="S269" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
